--- a/PROYECTO CP/Revision PPS-IPS/PPS VUCEPERPAM-256 Eliminar mercancías peligrosas en el manifiesto de mercancías peligrosas_v3.0.xlsx
+++ b/PROYECTO CP/Revision PPS-IPS/PPS VUCEPERPAM-256 Eliminar mercancías peligrosas en el manifiesto de mercancías peligrosas_v3.0.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28502"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\COMPLEXLESS\E3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VUCE\DocumentoVuce\PROYECTO CP\Revision PPS-IPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="103" documentId="8_{FCF33225-63EE-4927-9570-1802929D7C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25B86A7B-2759-4538-B6A4-0131BE756433}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256AC6A0-6E85-4C75-B0CD-319EA0C24CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-8925" yWindow="5805" windowWidth="18090" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VUCEPERPAM-256" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'VUCEPERPAM-256'!$B$46:$CJ$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'VUCEPERPAM-256'!$A$46:$CL$46</definedName>
     <definedName name="Estado_CP">#REF!</definedName>
     <definedName name="Metodos_Pruebas">#REF!</definedName>
     <definedName name="Requerimientos">#REF!</definedName>
@@ -34,8 +34,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -43,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="135">
   <si>
     <t>PLAN DE PRUEBAS DE SISTEMAS</t>
   </si>
@@ -312,13 +310,6 @@
     <t xml:space="preserve">Validar desistir de la eliminación de registros de la grilla de la subpestaña Entrada con la acción Rechazar </t>
   </si>
   <si>
-    <t xml:space="preserve">P1. Ingresar a la página de la VUCE
-P2. Ingresar al detalle de Mercancías peligrosas/pestaña de Entrada 
-P3 Clic en la grilla y Seleccionar eliminar 
-P4 Validar el mensaje de confirmacion de eliminacion y clic en Rechazar 
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">R1.Visualizar  la página de la VUCE
 R2 Visualizar detalle de Mercancías peligrosas/pestaña de Entrada 
 R3 Visualizar el boton eliminar
@@ -352,13 +343,6 @@
   </si>
   <si>
     <t xml:space="preserve">Validar desistir de la eliminación de registros de la grilla de la subpestaña Salida con la acción Rechazar </t>
-  </si>
-  <si>
-    <t>P1. Ingresar a la página de la VUCE
-P2. Ingresar al detalle de Mercancías peligrosas/pestaña de Salida 
-P3 Clic en la grilla y Seleccionar eliminar 
-P4 Validar el mensaje de confirmacion de eliminacion y clic en Rechazar 
-P5 Validar que no se elimina el registro en la lista.</t>
   </si>
   <si>
     <t xml:space="preserve">R1.Visualizar  la página de la VUCE
@@ -420,13 +404,6 @@
   </si>
   <si>
     <t>CP07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P1. Ingresar a la página de la VUCE
-P2. Ingresar al detalle de Mercancías peligrosas/pestaña de Salida 
-P3 Clic en la grilla y Seleccionar eliminar 
-P4 Validar el mensaje de confirmacion de eliminacion 
-P5 Se muestra el mensaje correcto </t>
   </si>
   <si>
     <t>CP08</t>
@@ -551,12 +528,40 @@
   <si>
     <t>año (yyyy)</t>
   </si>
+  <si>
+    <t xml:space="preserve">P1. Ingresar a la página de la VUCE
+P2. Ingresar al detalle de Mercancías peligrosas/pestaña de Entrada 
+P3 Clic en la grilla y Seleccionar eliminar 
+P4 Validar el mensaje de confirmacion de eliminacion y clic en Aceptar 
+</t>
+  </si>
+  <si>
+    <t>P1. Ingresar a la página de la VUCE
+P2. Ingresar al detalle de Mercancías peligrosas/pestaña de Entrada
+P3 Clic en la grilla y Seleccionar eliminar 
+P4 Validar el mensaje de confirmacion de eliminacion y clic en cerrar 
+P5 Validar que no se elimina el registro en la lista.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P1. Ingresar a la página de la VUCE
+P2. Ingresar al detalle de Mercancías peligrosas/pestaña de Salida 
+P3 Clic en la grilla y Seleccionar eliminar 
+P4 Validar el mensaje de confirmacion de eliminacion 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1.Visualizar  la página de la VUCE
+R2 Visualizar detalle de Mercancías peligrosas/pestaña de Salida 
+R3 Visualizar el boton eliminar
+R4 Visualizar el mensaje de confirmacion
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1443,37 +1448,22 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1482,68 +1472,20 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="6" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1551,71 +1493,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1626,120 +1511,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1748,9 +1519,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1830,19 +1598,256 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="6" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -31076,7 +31081,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -31374,11 +31379,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:CL79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54:C54"/>
+    <sheetView tabSelected="1" topLeftCell="N45" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="Y47" sqref="Y47:AO47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.140625" customWidth="1"/>
     <col min="2" max="3" width="3.140625" customWidth="1"/>
@@ -31419,301 +31424,301 @@
     <col min="102" max="110" width="5.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:42" ht="12.75" customHeight="1">
-      <c r="H3" s="77" t="s">
+    <row r="3" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="77"/>
-      <c r="T3" s="77"/>
-      <c r="U3" s="77"/>
-      <c r="V3" s="77"/>
-      <c r="W3" s="77"/>
-      <c r="X3" s="77"/>
-      <c r="Y3" s="77"/>
-      <c r="Z3" s="77"/>
-      <c r="AA3" s="77"/>
-      <c r="AB3" s="77"/>
-      <c r="AC3" s="77"/>
-      <c r="AD3" s="77"/>
-      <c r="AE3" s="77"/>
-      <c r="AF3" s="77"/>
-      <c r="AG3" s="77"/>
-      <c r="AH3" s="77"/>
-      <c r="AI3" s="77"/>
-      <c r="AJ3" s="77"/>
-      <c r="AK3" s="77"/>
-      <c r="AL3" s="77"/>
-      <c r="AM3" s="77"/>
-      <c r="AN3" s="77"/>
-      <c r="AO3" s="77"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="134"/>
+      <c r="N3" s="134"/>
+      <c r="O3" s="134"/>
+      <c r="P3" s="134"/>
+      <c r="Q3" s="134"/>
+      <c r="R3" s="134"/>
+      <c r="S3" s="134"/>
+      <c r="T3" s="134"/>
+      <c r="U3" s="134"/>
+      <c r="V3" s="134"/>
+      <c r="W3" s="134"/>
+      <c r="X3" s="134"/>
+      <c r="Y3" s="134"/>
+      <c r="Z3" s="134"/>
+      <c r="AA3" s="134"/>
+      <c r="AB3" s="134"/>
+      <c r="AC3" s="134"/>
+      <c r="AD3" s="134"/>
+      <c r="AE3" s="134"/>
+      <c r="AF3" s="134"/>
+      <c r="AG3" s="134"/>
+      <c r="AH3" s="134"/>
+      <c r="AI3" s="134"/>
+      <c r="AJ3" s="134"/>
+      <c r="AK3" s="134"/>
+      <c r="AL3" s="134"/>
+      <c r="AM3" s="134"/>
+      <c r="AN3" s="134"/>
+      <c r="AO3" s="134"/>
       <c r="AP3" s="2"/>
     </row>
-    <row r="4" spans="1:42" ht="12.75" customHeight="1">
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="77"/>
-      <c r="T4" s="77"/>
-      <c r="U4" s="77"/>
-      <c r="V4" s="77"/>
-      <c r="W4" s="77"/>
-      <c r="X4" s="77"/>
-      <c r="Y4" s="77"/>
-      <c r="Z4" s="77"/>
-      <c r="AA4" s="77"/>
-      <c r="AB4" s="77"/>
-      <c r="AC4" s="77"/>
-      <c r="AD4" s="77"/>
-      <c r="AE4" s="77"/>
-      <c r="AF4" s="77"/>
-      <c r="AG4" s="77"/>
-      <c r="AH4" s="77"/>
-      <c r="AI4" s="77"/>
-      <c r="AJ4" s="77"/>
-      <c r="AK4" s="77"/>
-      <c r="AL4" s="77"/>
-      <c r="AM4" s="77"/>
-      <c r="AN4" s="77"/>
-      <c r="AO4" s="77"/>
+    <row r="4" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="134"/>
+      <c r="I4" s="134"/>
+      <c r="J4" s="134"/>
+      <c r="K4" s="134"/>
+      <c r="L4" s="134"/>
+      <c r="M4" s="134"/>
+      <c r="N4" s="134"/>
+      <c r="O4" s="134"/>
+      <c r="P4" s="134"/>
+      <c r="Q4" s="134"/>
+      <c r="R4" s="134"/>
+      <c r="S4" s="134"/>
+      <c r="T4" s="134"/>
+      <c r="U4" s="134"/>
+      <c r="V4" s="134"/>
+      <c r="W4" s="134"/>
+      <c r="X4" s="134"/>
+      <c r="Y4" s="134"/>
+      <c r="Z4" s="134"/>
+      <c r="AA4" s="134"/>
+      <c r="AB4" s="134"/>
+      <c r="AC4" s="134"/>
+      <c r="AD4" s="134"/>
+      <c r="AE4" s="134"/>
+      <c r="AF4" s="134"/>
+      <c r="AG4" s="134"/>
+      <c r="AH4" s="134"/>
+      <c r="AI4" s="134"/>
+      <c r="AJ4" s="134"/>
+      <c r="AK4" s="134"/>
+      <c r="AL4" s="134"/>
+      <c r="AM4" s="134"/>
+      <c r="AN4" s="134"/>
+      <c r="AO4" s="134"/>
       <c r="AP4" s="2"/>
     </row>
-    <row r="5" spans="1:42" ht="11.25" customHeight="1"/>
-    <row r="6" spans="1:42" ht="6.75" customHeight="1"/>
-    <row r="7" spans="1:42" ht="15" customHeight="1">
-      <c r="G7" s="78" t="s">
+    <row r="5" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:42" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="78"/>
-      <c r="M7" s="78"/>
-      <c r="N7" s="78"/>
-      <c r="O7" s="78"/>
-      <c r="P7" s="78"/>
-      <c r="Q7" s="78"/>
-      <c r="R7" s="78"/>
-      <c r="S7" s="78"/>
-      <c r="T7" s="78"/>
-      <c r="U7" s="78"/>
-      <c r="V7" s="78"/>
-      <c r="W7" s="78"/>
-      <c r="X7" s="78"/>
-      <c r="Y7" s="78"/>
-      <c r="Z7" s="78"/>
-      <c r="AA7" s="78"/>
-      <c r="AB7" s="78"/>
-      <c r="AC7" s="78"/>
-      <c r="AD7" s="78"/>
-      <c r="AE7" s="78"/>
-      <c r="AF7" s="78"/>
-      <c r="AG7" s="78"/>
-      <c r="AH7" s="78"/>
-      <c r="AI7" s="78"/>
-      <c r="AJ7" s="78"/>
-      <c r="AK7" s="78"/>
-      <c r="AL7" s="78"/>
-      <c r="AM7" s="78"/>
-      <c r="AN7" s="78"/>
-      <c r="AO7" s="78"/>
+      <c r="H7" s="135"/>
+      <c r="I7" s="135"/>
+      <c r="J7" s="135"/>
+      <c r="K7" s="135"/>
+      <c r="L7" s="135"/>
+      <c r="M7" s="135"/>
+      <c r="N7" s="135"/>
+      <c r="O7" s="135"/>
+      <c r="P7" s="135"/>
+      <c r="Q7" s="135"/>
+      <c r="R7" s="135"/>
+      <c r="S7" s="135"/>
+      <c r="T7" s="135"/>
+      <c r="U7" s="135"/>
+      <c r="V7" s="135"/>
+      <c r="W7" s="135"/>
+      <c r="X7" s="135"/>
+      <c r="Y7" s="135"/>
+      <c r="Z7" s="135"/>
+      <c r="AA7" s="135"/>
+      <c r="AB7" s="135"/>
+      <c r="AC7" s="135"/>
+      <c r="AD7" s="135"/>
+      <c r="AE7" s="135"/>
+      <c r="AF7" s="135"/>
+      <c r="AG7" s="135"/>
+      <c r="AH7" s="135"/>
+      <c r="AI7" s="135"/>
+      <c r="AJ7" s="135"/>
+      <c r="AK7" s="135"/>
+      <c r="AL7" s="135"/>
+      <c r="AM7" s="135"/>
+      <c r="AN7" s="135"/>
+      <c r="AO7" s="135"/>
       <c r="AP7" s="3"/>
     </row>
-    <row r="8" spans="1:42" ht="15" customHeight="1">
-      <c r="G8" s="79" t="s">
+    <row r="8" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="80"/>
-      <c r="I8" s="79" t="s">
+      <c r="H8" s="137"/>
+      <c r="I8" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="80"/>
-      <c r="K8" s="81" t="s">
+      <c r="J8" s="137"/>
+      <c r="K8" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="82"/>
-      <c r="M8" s="82"/>
-      <c r="N8" s="82"/>
-      <c r="O8" s="82"/>
-      <c r="P8" s="82"/>
-      <c r="Q8" s="82"/>
-      <c r="R8" s="82"/>
-      <c r="S8" s="82"/>
-      <c r="T8" s="82"/>
-      <c r="U8" s="82"/>
-      <c r="V8" s="82"/>
-      <c r="W8" s="82"/>
-      <c r="X8" s="82"/>
-      <c r="Y8" s="82"/>
-      <c r="Z8" s="82"/>
-      <c r="AA8" s="82"/>
-      <c r="AB8" s="82"/>
-      <c r="AC8" s="82"/>
-      <c r="AD8" s="82"/>
-      <c r="AE8" s="83"/>
-      <c r="AF8" s="79" t="s">
+      <c r="L8" s="139"/>
+      <c r="M8" s="139"/>
+      <c r="N8" s="139"/>
+      <c r="O8" s="139"/>
+      <c r="P8" s="139"/>
+      <c r="Q8" s="139"/>
+      <c r="R8" s="139"/>
+      <c r="S8" s="139"/>
+      <c r="T8" s="139"/>
+      <c r="U8" s="139"/>
+      <c r="V8" s="139"/>
+      <c r="W8" s="139"/>
+      <c r="X8" s="139"/>
+      <c r="Y8" s="139"/>
+      <c r="Z8" s="139"/>
+      <c r="AA8" s="139"/>
+      <c r="AB8" s="139"/>
+      <c r="AC8" s="139"/>
+      <c r="AD8" s="139"/>
+      <c r="AE8" s="140"/>
+      <c r="AF8" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="AG8" s="84"/>
-      <c r="AH8" s="84"/>
-      <c r="AI8" s="84"/>
-      <c r="AJ8" s="84"/>
-      <c r="AK8" s="84"/>
-      <c r="AL8" s="84"/>
-      <c r="AM8" s="84"/>
-      <c r="AN8" s="84"/>
-      <c r="AO8" s="80"/>
+      <c r="AG8" s="141"/>
+      <c r="AH8" s="141"/>
+      <c r="AI8" s="141"/>
+      <c r="AJ8" s="141"/>
+      <c r="AK8" s="141"/>
+      <c r="AL8" s="141"/>
+      <c r="AM8" s="141"/>
+      <c r="AN8" s="141"/>
+      <c r="AO8" s="137"/>
     </row>
-    <row r="9" spans="1:42" ht="15" customHeight="1">
-      <c r="G9" s="91">
+    <row r="9" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="146">
         <v>45490</v>
       </c>
-      <c r="H9" s="92"/>
-      <c r="I9" s="93" t="s">
+      <c r="H9" s="147"/>
+      <c r="I9" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="94"/>
-      <c r="K9" s="95" t="s">
+      <c r="J9" s="149"/>
+      <c r="K9" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="95"/>
-      <c r="M9" s="95"/>
-      <c r="N9" s="95"/>
-      <c r="O9" s="95"/>
-      <c r="P9" s="95"/>
-      <c r="Q9" s="95"/>
-      <c r="R9" s="95"/>
-      <c r="S9" s="95"/>
-      <c r="T9" s="95"/>
-      <c r="U9" s="95"/>
-      <c r="V9" s="95"/>
-      <c r="W9" s="95"/>
-      <c r="X9" s="95"/>
-      <c r="Y9" s="95"/>
-      <c r="Z9" s="95"/>
-      <c r="AA9" s="95"/>
-      <c r="AB9" s="95"/>
-      <c r="AC9" s="95"/>
-      <c r="AD9" s="95"/>
-      <c r="AE9" s="95"/>
-      <c r="AF9" s="96" t="s">
+      <c r="L9" s="150"/>
+      <c r="M9" s="150"/>
+      <c r="N9" s="150"/>
+      <c r="O9" s="150"/>
+      <c r="P9" s="150"/>
+      <c r="Q9" s="150"/>
+      <c r="R9" s="150"/>
+      <c r="S9" s="150"/>
+      <c r="T9" s="150"/>
+      <c r="U9" s="150"/>
+      <c r="V9" s="150"/>
+      <c r="W9" s="150"/>
+      <c r="X9" s="150"/>
+      <c r="Y9" s="150"/>
+      <c r="Z9" s="150"/>
+      <c r="AA9" s="150"/>
+      <c r="AB9" s="150"/>
+      <c r="AC9" s="150"/>
+      <c r="AD9" s="150"/>
+      <c r="AE9" s="150"/>
+      <c r="AF9" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="AG9" s="96"/>
-      <c r="AH9" s="96"/>
-      <c r="AI9" s="96"/>
-      <c r="AJ9" s="96"/>
-      <c r="AK9" s="96"/>
-      <c r="AL9" s="96"/>
-      <c r="AM9" s="96"/>
-      <c r="AN9" s="96"/>
-      <c r="AO9" s="97"/>
+      <c r="AG9" s="151"/>
+      <c r="AH9" s="151"/>
+      <c r="AI9" s="151"/>
+      <c r="AJ9" s="151"/>
+      <c r="AK9" s="151"/>
+      <c r="AL9" s="151"/>
+      <c r="AM9" s="151"/>
+      <c r="AN9" s="151"/>
+      <c r="AO9" s="152"/>
     </row>
-    <row r="10" spans="1:42" ht="15" customHeight="1">
-      <c r="G10" s="91">
+    <row r="10" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="146">
         <v>45586</v>
       </c>
-      <c r="H10" s="92"/>
-      <c r="I10" s="93" t="s">
+      <c r="H10" s="147"/>
+      <c r="I10" s="148" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="94"/>
-      <c r="K10" s="95" t="s">
+      <c r="J10" s="149"/>
+      <c r="K10" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="L10" s="95"/>
-      <c r="M10" s="95"/>
-      <c r="N10" s="95"/>
-      <c r="O10" s="95"/>
-      <c r="P10" s="95"/>
-      <c r="Q10" s="95"/>
-      <c r="R10" s="95"/>
-      <c r="S10" s="95"/>
-      <c r="T10" s="95"/>
-      <c r="U10" s="95"/>
-      <c r="V10" s="95"/>
-      <c r="W10" s="95"/>
-      <c r="X10" s="95"/>
-      <c r="Y10" s="95"/>
-      <c r="Z10" s="95"/>
-      <c r="AA10" s="95"/>
-      <c r="AB10" s="95"/>
-      <c r="AC10" s="95"/>
-      <c r="AD10" s="95"/>
-      <c r="AE10" s="95"/>
-      <c r="AF10" s="96" t="s">
+      <c r="L10" s="150"/>
+      <c r="M10" s="150"/>
+      <c r="N10" s="150"/>
+      <c r="O10" s="150"/>
+      <c r="P10" s="150"/>
+      <c r="Q10" s="150"/>
+      <c r="R10" s="150"/>
+      <c r="S10" s="150"/>
+      <c r="T10" s="150"/>
+      <c r="U10" s="150"/>
+      <c r="V10" s="150"/>
+      <c r="W10" s="150"/>
+      <c r="X10" s="150"/>
+      <c r="Y10" s="150"/>
+      <c r="Z10" s="150"/>
+      <c r="AA10" s="150"/>
+      <c r="AB10" s="150"/>
+      <c r="AC10" s="150"/>
+      <c r="AD10" s="150"/>
+      <c r="AE10" s="150"/>
+      <c r="AF10" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="AG10" s="96"/>
-      <c r="AH10" s="96"/>
-      <c r="AI10" s="96"/>
-      <c r="AJ10" s="96"/>
-      <c r="AK10" s="96"/>
-      <c r="AL10" s="96"/>
-      <c r="AM10" s="96"/>
-      <c r="AN10" s="96"/>
-      <c r="AO10" s="97"/>
+      <c r="AG10" s="151"/>
+      <c r="AH10" s="151"/>
+      <c r="AI10" s="151"/>
+      <c r="AJ10" s="151"/>
+      <c r="AK10" s="151"/>
+      <c r="AL10" s="151"/>
+      <c r="AM10" s="151"/>
+      <c r="AN10" s="151"/>
+      <c r="AO10" s="152"/>
     </row>
-    <row r="11" spans="1:42" ht="15" customHeight="1">
-      <c r="G11" s="85"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="88"/>
-      <c r="N11" s="88"/>
-      <c r="O11" s="88"/>
-      <c r="P11" s="88"/>
-      <c r="Q11" s="88"/>
-      <c r="R11" s="88"/>
-      <c r="S11" s="88"/>
-      <c r="T11" s="88"/>
-      <c r="U11" s="88"/>
-      <c r="V11" s="88"/>
-      <c r="W11" s="88"/>
-      <c r="X11" s="88"/>
-      <c r="Y11" s="88"/>
-      <c r="Z11" s="88"/>
-      <c r="AA11" s="88"/>
-      <c r="AB11" s="88"/>
-      <c r="AC11" s="88"/>
-      <c r="AD11" s="88"/>
-      <c r="AE11" s="88"/>
-      <c r="AF11" s="89"/>
-      <c r="AG11" s="89"/>
-      <c r="AH11" s="89"/>
-      <c r="AI11" s="89"/>
-      <c r="AJ11" s="89"/>
-      <c r="AK11" s="89"/>
-      <c r="AL11" s="89"/>
-      <c r="AM11" s="89"/>
-      <c r="AN11" s="89"/>
-      <c r="AO11" s="90"/>
+    <row r="11" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="142"/>
+      <c r="H11" s="143"/>
+      <c r="I11" s="142"/>
+      <c r="J11" s="144"/>
+      <c r="K11" s="145"/>
+      <c r="L11" s="145"/>
+      <c r="M11" s="145"/>
+      <c r="N11" s="145"/>
+      <c r="O11" s="145"/>
+      <c r="P11" s="145"/>
+      <c r="Q11" s="145"/>
+      <c r="R11" s="145"/>
+      <c r="S11" s="145"/>
+      <c r="T11" s="145"/>
+      <c r="U11" s="145"/>
+      <c r="V11" s="145"/>
+      <c r="W11" s="145"/>
+      <c r="X11" s="145"/>
+      <c r="Y11" s="145"/>
+      <c r="Z11" s="145"/>
+      <c r="AA11" s="145"/>
+      <c r="AB11" s="145"/>
+      <c r="AC11" s="145"/>
+      <c r="AD11" s="145"/>
+      <c r="AE11" s="145"/>
+      <c r="AF11" s="126"/>
+      <c r="AG11" s="126"/>
+      <c r="AH11" s="126"/>
+      <c r="AI11" s="126"/>
+      <c r="AJ11" s="126"/>
+      <c r="AK11" s="126"/>
+      <c r="AL11" s="126"/>
+      <c r="AM11" s="126"/>
+      <c r="AN11" s="126"/>
+      <c r="AO11" s="127"/>
     </row>
-    <row r="12" spans="1:42" ht="15" customHeight="1"/>
-    <row r="13" spans="1:42">
+    <row r="12" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:42" ht="15.75" thickBot="1">
+    <row r="14" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
@@ -31752,245 +31757,245 @@
       <c r="AN14" s="5"/>
       <c r="AO14" s="5"/>
     </row>
-    <row r="15" spans="1:42" ht="15.75" thickBot="1">
+    <row r="15" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
-      <c r="B15" s="98" t="s">
+      <c r="B15" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="101" t="s">
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="102"/>
-      <c r="J15" s="102"/>
-      <c r="K15" s="102"/>
-      <c r="L15" s="102"/>
-      <c r="M15" s="102"/>
-      <c r="N15" s="102"/>
-      <c r="O15" s="102"/>
-      <c r="P15" s="102"/>
-      <c r="Q15" s="102"/>
-      <c r="R15" s="102"/>
-      <c r="S15" s="102"/>
-      <c r="T15" s="102"/>
-      <c r="U15" s="102"/>
-      <c r="V15" s="102"/>
-      <c r="W15" s="102"/>
-      <c r="X15" s="102"/>
-      <c r="Y15" s="102"/>
-      <c r="Z15" s="102"/>
-      <c r="AA15" s="102"/>
-      <c r="AB15" s="102"/>
-      <c r="AC15" s="102"/>
-      <c r="AD15" s="102"/>
-      <c r="AE15" s="102"/>
-      <c r="AF15" s="102"/>
-      <c r="AG15" s="102"/>
-      <c r="AH15" s="102"/>
-      <c r="AI15" s="102"/>
-      <c r="AJ15" s="102"/>
-      <c r="AK15" s="102"/>
-      <c r="AL15" s="102"/>
-      <c r="AM15" s="102"/>
-      <c r="AN15" s="102"/>
-      <c r="AO15" s="103"/>
+      <c r="I15" s="91"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="91"/>
+      <c r="L15" s="91"/>
+      <c r="M15" s="91"/>
+      <c r="N15" s="91"/>
+      <c r="O15" s="91"/>
+      <c r="P15" s="91"/>
+      <c r="Q15" s="91"/>
+      <c r="R15" s="91"/>
+      <c r="S15" s="91"/>
+      <c r="T15" s="91"/>
+      <c r="U15" s="91"/>
+      <c r="V15" s="91"/>
+      <c r="W15" s="91"/>
+      <c r="X15" s="91"/>
+      <c r="Y15" s="91"/>
+      <c r="Z15" s="91"/>
+      <c r="AA15" s="91"/>
+      <c r="AB15" s="91"/>
+      <c r="AC15" s="91"/>
+      <c r="AD15" s="91"/>
+      <c r="AE15" s="91"/>
+      <c r="AF15" s="91"/>
+      <c r="AG15" s="91"/>
+      <c r="AH15" s="91"/>
+      <c r="AI15" s="91"/>
+      <c r="AJ15" s="91"/>
+      <c r="AK15" s="91"/>
+      <c r="AL15" s="91"/>
+      <c r="AM15" s="91"/>
+      <c r="AN15" s="91"/>
+      <c r="AO15" s="92"/>
       <c r="AP15" s="7"/>
     </row>
-    <row r="16" spans="1:42" ht="15.75" thickBot="1">
+    <row r="16" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
-      <c r="B16" s="98" t="s">
+      <c r="B16" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="139" t="s">
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="140"/>
-      <c r="J16" s="140"/>
-      <c r="K16" s="140"/>
-      <c r="L16" s="140"/>
-      <c r="M16" s="140"/>
-      <c r="N16" s="140"/>
-      <c r="O16" s="140"/>
-      <c r="P16" s="140"/>
-      <c r="Q16" s="140"/>
-      <c r="R16" s="140"/>
-      <c r="S16" s="140"/>
-      <c r="T16" s="140"/>
-      <c r="U16" s="140"/>
-      <c r="V16" s="140"/>
-      <c r="W16" s="140"/>
-      <c r="X16" s="140"/>
-      <c r="Y16" s="140"/>
-      <c r="Z16" s="140"/>
-      <c r="AA16" s="140"/>
-      <c r="AB16" s="140"/>
-      <c r="AC16" s="140"/>
-      <c r="AD16" s="140"/>
-      <c r="AE16" s="140"/>
-      <c r="AF16" s="140"/>
-      <c r="AG16" s="140"/>
-      <c r="AH16" s="140"/>
-      <c r="AI16" s="140"/>
-      <c r="AJ16" s="140"/>
-      <c r="AK16" s="140"/>
-      <c r="AL16" s="140"/>
-      <c r="AM16" s="140"/>
-      <c r="AN16" s="140"/>
-      <c r="AO16" s="141"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="62"/>
+      <c r="Q16" s="62"/>
+      <c r="R16" s="62"/>
+      <c r="S16" s="62"/>
+      <c r="T16" s="62"/>
+      <c r="U16" s="62"/>
+      <c r="V16" s="62"/>
+      <c r="W16" s="62"/>
+      <c r="X16" s="62"/>
+      <c r="Y16" s="62"/>
+      <c r="Z16" s="62"/>
+      <c r="AA16" s="62"/>
+      <c r="AB16" s="62"/>
+      <c r="AC16" s="62"/>
+      <c r="AD16" s="62"/>
+      <c r="AE16" s="62"/>
+      <c r="AF16" s="62"/>
+      <c r="AG16" s="62"/>
+      <c r="AH16" s="62"/>
+      <c r="AI16" s="62"/>
+      <c r="AJ16" s="62"/>
+      <c r="AK16" s="62"/>
+      <c r="AL16" s="62"/>
+      <c r="AM16" s="62"/>
+      <c r="AN16" s="62"/>
+      <c r="AO16" s="63"/>
       <c r="AP16" s="7"/>
     </row>
-    <row r="17" spans="1:42" ht="15.75" thickBot="1">
+    <row r="17" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
-      <c r="B17" s="98" t="s">
+      <c r="B17" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="99"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="60" t="s">
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="60"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="60"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="60"/>
-      <c r="P17" s="60"/>
-      <c r="Q17" s="60"/>
-      <c r="R17" s="60"/>
-      <c r="S17" s="60"/>
-      <c r="T17" s="60"/>
-      <c r="U17" s="60"/>
-      <c r="V17" s="60"/>
-      <c r="W17" s="60"/>
-      <c r="X17" s="60"/>
-      <c r="Y17" s="60"/>
-      <c r="Z17" s="60"/>
-      <c r="AA17" s="60"/>
-      <c r="AB17" s="60"/>
-      <c r="AC17" s="60"/>
-      <c r="AD17" s="60"/>
-      <c r="AE17" s="60"/>
-      <c r="AF17" s="60"/>
-      <c r="AG17" s="60"/>
-      <c r="AH17" s="60"/>
-      <c r="AI17" s="60"/>
-      <c r="AJ17" s="60"/>
-      <c r="AK17" s="60"/>
-      <c r="AL17" s="60"/>
-      <c r="AM17" s="60"/>
-      <c r="AN17" s="60"/>
-      <c r="AO17" s="60"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="93"/>
+      <c r="L17" s="93"/>
+      <c r="M17" s="93"/>
+      <c r="N17" s="93"/>
+      <c r="O17" s="93"/>
+      <c r="P17" s="93"/>
+      <c r="Q17" s="93"/>
+      <c r="R17" s="93"/>
+      <c r="S17" s="93"/>
+      <c r="T17" s="93"/>
+      <c r="U17" s="93"/>
+      <c r="V17" s="93"/>
+      <c r="W17" s="93"/>
+      <c r="X17" s="93"/>
+      <c r="Y17" s="93"/>
+      <c r="Z17" s="93"/>
+      <c r="AA17" s="93"/>
+      <c r="AB17" s="93"/>
+      <c r="AC17" s="93"/>
+      <c r="AD17" s="93"/>
+      <c r="AE17" s="93"/>
+      <c r="AF17" s="93"/>
+      <c r="AG17" s="93"/>
+      <c r="AH17" s="93"/>
+      <c r="AI17" s="93"/>
+      <c r="AJ17" s="93"/>
+      <c r="AK17" s="93"/>
+      <c r="AL17" s="93"/>
+      <c r="AM17" s="93"/>
+      <c r="AN17" s="93"/>
+      <c r="AO17" s="93"/>
       <c r="AP17" s="7"/>
     </row>
-    <row r="18" spans="1:42" ht="15.75" thickBot="1">
+    <row r="18" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
-      <c r="B18" s="98" t="s">
+      <c r="B18" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="104"/>
-      <c r="I18" s="104"/>
-      <c r="J18" s="104"/>
-      <c r="K18" s="104"/>
-      <c r="L18" s="104"/>
-      <c r="M18" s="104"/>
-      <c r="N18" s="104"/>
-      <c r="O18" s="104"/>
-      <c r="P18" s="104"/>
-      <c r="Q18" s="104"/>
-      <c r="R18" s="104"/>
-      <c r="S18" s="104"/>
-      <c r="T18" s="104"/>
-      <c r="U18" s="104"/>
-      <c r="V18" s="104"/>
-      <c r="W18" s="104"/>
-      <c r="X18" s="104"/>
-      <c r="Y18" s="104"/>
-      <c r="Z18" s="104"/>
-      <c r="AA18" s="104"/>
-      <c r="AB18" s="104"/>
-      <c r="AC18" s="104"/>
-      <c r="AD18" s="104"/>
-      <c r="AE18" s="104"/>
-      <c r="AF18" s="104"/>
-      <c r="AG18" s="104"/>
-      <c r="AH18" s="104"/>
-      <c r="AI18" s="104"/>
-      <c r="AJ18" s="104"/>
-      <c r="AK18" s="104"/>
-      <c r="AL18" s="104"/>
-      <c r="AM18" s="104"/>
-      <c r="AN18" s="104"/>
-      <c r="AO18" s="104"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="94"/>
+      <c r="L18" s="94"/>
+      <c r="M18" s="94"/>
+      <c r="N18" s="94"/>
+      <c r="O18" s="94"/>
+      <c r="P18" s="94"/>
+      <c r="Q18" s="94"/>
+      <c r="R18" s="94"/>
+      <c r="S18" s="94"/>
+      <c r="T18" s="94"/>
+      <c r="U18" s="94"/>
+      <c r="V18" s="94"/>
+      <c r="W18" s="94"/>
+      <c r="X18" s="94"/>
+      <c r="Y18" s="94"/>
+      <c r="Z18" s="94"/>
+      <c r="AA18" s="94"/>
+      <c r="AB18" s="94"/>
+      <c r="AC18" s="94"/>
+      <c r="AD18" s="94"/>
+      <c r="AE18" s="94"/>
+      <c r="AF18" s="94"/>
+      <c r="AG18" s="94"/>
+      <c r="AH18" s="94"/>
+      <c r="AI18" s="94"/>
+      <c r="AJ18" s="94"/>
+      <c r="AK18" s="94"/>
+      <c r="AL18" s="94"/>
+      <c r="AM18" s="94"/>
+      <c r="AN18" s="94"/>
+      <c r="AO18" s="94"/>
       <c r="AP18" s="8"/>
     </row>
-    <row r="19" spans="1:42" ht="16.5" customHeight="1" thickBot="1">
+    <row r="19" spans="1:42" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
-      <c r="B19" s="117" t="s">
+      <c r="B19" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="118"/>
-      <c r="D19" s="118"/>
-      <c r="E19" s="118"/>
-      <c r="F19" s="118"/>
-      <c r="G19" s="119"/>
-      <c r="H19" s="120">
+      <c r="C19" s="111"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="112"/>
+      <c r="H19" s="113">
         <v>1</v>
       </c>
-      <c r="I19" s="121"/>
-      <c r="J19" s="121"/>
-      <c r="K19" s="121"/>
-      <c r="L19" s="121"/>
-      <c r="M19" s="121"/>
-      <c r="N19" s="121"/>
-      <c r="O19" s="121"/>
-      <c r="P19" s="121"/>
-      <c r="Q19" s="121"/>
-      <c r="R19" s="121"/>
-      <c r="S19" s="121"/>
-      <c r="T19" s="121"/>
-      <c r="U19" s="121"/>
-      <c r="V19" s="121"/>
-      <c r="W19" s="121"/>
-      <c r="X19" s="121"/>
-      <c r="Y19" s="121"/>
-      <c r="Z19" s="121"/>
-      <c r="AA19" s="121"/>
-      <c r="AB19" s="121"/>
-      <c r="AC19" s="121"/>
-      <c r="AD19" s="121"/>
-      <c r="AE19" s="121"/>
-      <c r="AF19" s="121"/>
-      <c r="AG19" s="121"/>
-      <c r="AH19" s="121"/>
-      <c r="AI19" s="121"/>
-      <c r="AJ19" s="121"/>
-      <c r="AK19" s="121"/>
-      <c r="AL19" s="121"/>
-      <c r="AM19" s="121"/>
-      <c r="AN19" s="121"/>
-      <c r="AO19" s="122"/>
+      <c r="I19" s="114"/>
+      <c r="J19" s="114"/>
+      <c r="K19" s="114"/>
+      <c r="L19" s="114"/>
+      <c r="M19" s="114"/>
+      <c r="N19" s="114"/>
+      <c r="O19" s="114"/>
+      <c r="P19" s="114"/>
+      <c r="Q19" s="114"/>
+      <c r="R19" s="114"/>
+      <c r="S19" s="114"/>
+      <c r="T19" s="114"/>
+      <c r="U19" s="114"/>
+      <c r="V19" s="114"/>
+      <c r="W19" s="114"/>
+      <c r="X19" s="114"/>
+      <c r="Y19" s="114"/>
+      <c r="Z19" s="114"/>
+      <c r="AA19" s="114"/>
+      <c r="AB19" s="114"/>
+      <c r="AC19" s="114"/>
+      <c r="AD19" s="114"/>
+      <c r="AE19" s="114"/>
+      <c r="AF19" s="114"/>
+      <c r="AG19" s="114"/>
+      <c r="AH19" s="114"/>
+      <c r="AI19" s="114"/>
+      <c r="AJ19" s="114"/>
+      <c r="AK19" s="114"/>
+      <c r="AL19" s="114"/>
+      <c r="AM19" s="114"/>
+      <c r="AN19" s="114"/>
+      <c r="AO19" s="115"/>
       <c r="AP19" s="8"/>
     </row>
-    <row r="20" spans="1:42">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C20" s="4"/>
       <c r="E20" s="9"/>
       <c r="F20" s="10"/>
@@ -32031,7 +32036,7 @@
       <c r="AO20" s="11"/>
       <c r="AP20" s="11"/>
     </row>
-    <row r="21" spans="1:42">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C21" s="4"/>
       <c r="E21" s="9"/>
       <c r="F21" s="10"/>
@@ -32072,7 +32077,7 @@
       <c r="AO21" s="11"/>
       <c r="AP21" s="11"/>
     </row>
-    <row r="22" spans="1:42">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>20</v>
       </c>
@@ -32082,34 +32087,34 @@
       <c r="G22" s="10"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
-      <c r="J22" s="123" t="s">
+      <c r="J22" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="124"/>
-      <c r="L22" s="124"/>
-      <c r="M22" s="124"/>
-      <c r="N22" s="124"/>
-      <c r="O22" s="124"/>
-      <c r="P22" s="124"/>
-      <c r="Q22" s="124"/>
-      <c r="R22" s="124"/>
-      <c r="S22" s="124"/>
-      <c r="T22" s="124"/>
-      <c r="U22" s="124"/>
-      <c r="V22" s="124"/>
-      <c r="W22" s="124"/>
-      <c r="X22" s="124"/>
-      <c r="Y22" s="124"/>
-      <c r="Z22" s="124"/>
-      <c r="AA22" s="124"/>
-      <c r="AB22" s="124"/>
-      <c r="AC22" s="124"/>
-      <c r="AD22" s="124"/>
-      <c r="AE22" s="124"/>
-      <c r="AF22" s="124"/>
-      <c r="AG22" s="124"/>
-      <c r="AH22" s="124"/>
-      <c r="AI22" s="125"/>
+      <c r="K22" s="117"/>
+      <c r="L22" s="117"/>
+      <c r="M22" s="117"/>
+      <c r="N22" s="117"/>
+      <c r="O22" s="117"/>
+      <c r="P22" s="117"/>
+      <c r="Q22" s="117"/>
+      <c r="R22" s="117"/>
+      <c r="S22" s="117"/>
+      <c r="T22" s="117"/>
+      <c r="U22" s="117"/>
+      <c r="V22" s="117"/>
+      <c r="W22" s="117"/>
+      <c r="X22" s="117"/>
+      <c r="Y22" s="117"/>
+      <c r="Z22" s="117"/>
+      <c r="AA22" s="117"/>
+      <c r="AB22" s="117"/>
+      <c r="AC22" s="117"/>
+      <c r="AD22" s="117"/>
+      <c r="AE22" s="117"/>
+      <c r="AF22" s="117"/>
+      <c r="AG22" s="117"/>
+      <c r="AH22" s="117"/>
+      <c r="AI22" s="118"/>
       <c r="AJ22" s="11"/>
       <c r="AK22" s="11"/>
       <c r="AL22" s="11"/>
@@ -32118,7 +32123,7 @@
       <c r="AO22" s="11"/>
       <c r="AP22" s="11"/>
     </row>
-    <row r="23" spans="1:42" ht="5.25" customHeight="1">
+    <row r="23" spans="1:42" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AF23" s="11"/>
       <c r="AG23" s="11"/>
       <c r="AH23" s="11"/>
@@ -32131,7 +32136,7 @@
       <c r="AO23" s="11"/>
       <c r="AP23" s="11"/>
     </row>
-    <row r="24" spans="1:42">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B24" s="12"/>
       <c r="C24" s="4"/>
       <c r="E24" s="9"/>
@@ -32173,7 +32178,7 @@
       <c r="AO24" s="11"/>
       <c r="AP24" s="11"/>
     </row>
-    <row r="25" spans="1:42">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="E25" s="9"/>
@@ -32215,286 +32220,286 @@
       <c r="AO25" s="11"/>
       <c r="AP25" s="11"/>
     </row>
-    <row r="26" spans="1:42" ht="15.75" thickBot="1">
+    <row r="26" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:42">
-      <c r="B27" s="126" t="s">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B27" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="127"/>
-      <c r="D27" s="127"/>
-      <c r="E27" s="128"/>
-      <c r="F27" s="129" t="s">
+      <c r="C27" s="120"/>
+      <c r="D27" s="120"/>
+      <c r="E27" s="121"/>
+      <c r="F27" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="130"/>
-      <c r="H27" s="130"/>
-      <c r="I27" s="130"/>
-      <c r="J27" s="130"/>
-      <c r="K27" s="130"/>
-      <c r="L27" s="130"/>
-      <c r="M27" s="130"/>
-      <c r="N27" s="130"/>
-      <c r="O27" s="130"/>
-      <c r="P27" s="130"/>
-      <c r="Q27" s="130"/>
-      <c r="R27" s="130"/>
-      <c r="S27" s="130"/>
-      <c r="T27" s="130"/>
-      <c r="U27" s="130"/>
-      <c r="V27" s="130"/>
-      <c r="W27" s="130"/>
-      <c r="X27" s="130"/>
-      <c r="Y27" s="130"/>
-      <c r="Z27" s="130"/>
-      <c r="AA27" s="130"/>
-      <c r="AB27" s="130"/>
-      <c r="AC27" s="130"/>
-      <c r="AD27" s="130"/>
-      <c r="AE27" s="130"/>
-      <c r="AF27" s="130"/>
-      <c r="AG27" s="130"/>
-      <c r="AH27" s="130"/>
-      <c r="AI27" s="130"/>
-      <c r="AJ27" s="130"/>
-      <c r="AK27" s="130"/>
-      <c r="AL27" s="130"/>
-      <c r="AM27" s="130"/>
-      <c r="AN27" s="130"/>
-      <c r="AO27" s="131"/>
+      <c r="G27" s="123"/>
+      <c r="H27" s="123"/>
+      <c r="I27" s="123"/>
+      <c r="J27" s="123"/>
+      <c r="K27" s="123"/>
+      <c r="L27" s="123"/>
+      <c r="M27" s="123"/>
+      <c r="N27" s="123"/>
+      <c r="O27" s="123"/>
+      <c r="P27" s="123"/>
+      <c r="Q27" s="123"/>
+      <c r="R27" s="123"/>
+      <c r="S27" s="123"/>
+      <c r="T27" s="123"/>
+      <c r="U27" s="123"/>
+      <c r="V27" s="123"/>
+      <c r="W27" s="123"/>
+      <c r="X27" s="123"/>
+      <c r="Y27" s="123"/>
+      <c r="Z27" s="123"/>
+      <c r="AA27" s="123"/>
+      <c r="AB27" s="123"/>
+      <c r="AC27" s="123"/>
+      <c r="AD27" s="123"/>
+      <c r="AE27" s="123"/>
+      <c r="AF27" s="123"/>
+      <c r="AG27" s="123"/>
+      <c r="AH27" s="123"/>
+      <c r="AI27" s="123"/>
+      <c r="AJ27" s="123"/>
+      <c r="AK27" s="123"/>
+      <c r="AL27" s="123"/>
+      <c r="AM27" s="123"/>
+      <c r="AN27" s="123"/>
+      <c r="AO27" s="124"/>
       <c r="AP27" s="11"/>
     </row>
-    <row r="28" spans="1:42">
-      <c r="B28" s="132" t="s">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B28" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="89"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="133" t="s">
+      <c r="C28" s="126"/>
+      <c r="D28" s="126"/>
+      <c r="E28" s="127"/>
+      <c r="F28" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="134"/>
-      <c r="H28" s="134"/>
-      <c r="I28" s="134"/>
-      <c r="J28" s="134"/>
-      <c r="K28" s="134"/>
-      <c r="L28" s="134"/>
-      <c r="M28" s="134"/>
-      <c r="N28" s="134"/>
-      <c r="O28" s="134"/>
-      <c r="P28" s="134"/>
-      <c r="Q28" s="134"/>
-      <c r="R28" s="134"/>
-      <c r="S28" s="134"/>
-      <c r="T28" s="134"/>
-      <c r="U28" s="134"/>
-      <c r="V28" s="134"/>
-      <c r="W28" s="134"/>
-      <c r="X28" s="134"/>
-      <c r="Y28" s="134"/>
-      <c r="Z28" s="134"/>
-      <c r="AA28" s="134"/>
-      <c r="AB28" s="134"/>
-      <c r="AC28" s="134"/>
-      <c r="AD28" s="134"/>
-      <c r="AE28" s="134"/>
-      <c r="AF28" s="134"/>
-      <c r="AG28" s="134"/>
-      <c r="AH28" s="134"/>
-      <c r="AI28" s="134"/>
-      <c r="AJ28" s="134"/>
-      <c r="AK28" s="134"/>
-      <c r="AL28" s="134"/>
-      <c r="AM28" s="134"/>
-      <c r="AN28" s="134"/>
-      <c r="AO28" s="135"/>
+      <c r="G28" s="129"/>
+      <c r="H28" s="129"/>
+      <c r="I28" s="129"/>
+      <c r="J28" s="129"/>
+      <c r="K28" s="129"/>
+      <c r="L28" s="129"/>
+      <c r="M28" s="129"/>
+      <c r="N28" s="129"/>
+      <c r="O28" s="129"/>
+      <c r="P28" s="129"/>
+      <c r="Q28" s="129"/>
+      <c r="R28" s="129"/>
+      <c r="S28" s="129"/>
+      <c r="T28" s="129"/>
+      <c r="U28" s="129"/>
+      <c r="V28" s="129"/>
+      <c r="W28" s="129"/>
+      <c r="X28" s="129"/>
+      <c r="Y28" s="129"/>
+      <c r="Z28" s="129"/>
+      <c r="AA28" s="129"/>
+      <c r="AB28" s="129"/>
+      <c r="AC28" s="129"/>
+      <c r="AD28" s="129"/>
+      <c r="AE28" s="129"/>
+      <c r="AF28" s="129"/>
+      <c r="AG28" s="129"/>
+      <c r="AH28" s="129"/>
+      <c r="AI28" s="129"/>
+      <c r="AJ28" s="129"/>
+      <c r="AK28" s="129"/>
+      <c r="AL28" s="129"/>
+      <c r="AM28" s="129"/>
+      <c r="AN28" s="129"/>
+      <c r="AO28" s="130"/>
       <c r="AP28" s="11"/>
     </row>
-    <row r="29" spans="1:42">
-      <c r="B29" s="132" t="s">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B29" s="125" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="89"/>
-      <c r="D29" s="89"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="133"/>
-      <c r="G29" s="134"/>
-      <c r="H29" s="134"/>
-      <c r="I29" s="134"/>
-      <c r="J29" s="134"/>
-      <c r="K29" s="134"/>
-      <c r="L29" s="134"/>
-      <c r="M29" s="134"/>
-      <c r="N29" s="134"/>
-      <c r="O29" s="134"/>
-      <c r="P29" s="134"/>
-      <c r="Q29" s="134"/>
-      <c r="R29" s="134"/>
-      <c r="S29" s="134"/>
-      <c r="T29" s="134"/>
-      <c r="U29" s="134"/>
-      <c r="V29" s="134"/>
-      <c r="W29" s="134"/>
-      <c r="X29" s="134"/>
-      <c r="Y29" s="134"/>
-      <c r="Z29" s="134"/>
-      <c r="AA29" s="134"/>
-      <c r="AB29" s="134"/>
-      <c r="AC29" s="134"/>
-      <c r="AD29" s="134"/>
-      <c r="AE29" s="134"/>
-      <c r="AF29" s="134"/>
-      <c r="AG29" s="134"/>
-      <c r="AH29" s="134"/>
-      <c r="AI29" s="134"/>
-      <c r="AJ29" s="134"/>
-      <c r="AK29" s="134"/>
-      <c r="AL29" s="134"/>
-      <c r="AM29" s="134"/>
-      <c r="AN29" s="134"/>
-      <c r="AO29" s="135"/>
+      <c r="C29" s="126"/>
+      <c r="D29" s="126"/>
+      <c r="E29" s="127"/>
+      <c r="F29" s="128"/>
+      <c r="G29" s="129"/>
+      <c r="H29" s="129"/>
+      <c r="I29" s="129"/>
+      <c r="J29" s="129"/>
+      <c r="K29" s="129"/>
+      <c r="L29" s="129"/>
+      <c r="M29" s="129"/>
+      <c r="N29" s="129"/>
+      <c r="O29" s="129"/>
+      <c r="P29" s="129"/>
+      <c r="Q29" s="129"/>
+      <c r="R29" s="129"/>
+      <c r="S29" s="129"/>
+      <c r="T29" s="129"/>
+      <c r="U29" s="129"/>
+      <c r="V29" s="129"/>
+      <c r="W29" s="129"/>
+      <c r="X29" s="129"/>
+      <c r="Y29" s="129"/>
+      <c r="Z29" s="129"/>
+      <c r="AA29" s="129"/>
+      <c r="AB29" s="129"/>
+      <c r="AC29" s="129"/>
+      <c r="AD29" s="129"/>
+      <c r="AE29" s="129"/>
+      <c r="AF29" s="129"/>
+      <c r="AG29" s="129"/>
+      <c r="AH29" s="129"/>
+      <c r="AI29" s="129"/>
+      <c r="AJ29" s="129"/>
+      <c r="AK29" s="129"/>
+      <c r="AL29" s="129"/>
+      <c r="AM29" s="129"/>
+      <c r="AN29" s="129"/>
+      <c r="AO29" s="130"/>
       <c r="AP29" s="11"/>
     </row>
-    <row r="30" spans="1:42">
-      <c r="B30" s="132" t="s">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B30" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="89"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="133"/>
-      <c r="G30" s="134"/>
-      <c r="H30" s="134"/>
-      <c r="I30" s="134"/>
-      <c r="J30" s="134"/>
-      <c r="K30" s="134"/>
-      <c r="L30" s="134"/>
-      <c r="M30" s="134"/>
-      <c r="N30" s="134"/>
-      <c r="O30" s="134"/>
-      <c r="P30" s="134"/>
-      <c r="Q30" s="134"/>
-      <c r="R30" s="134"/>
-      <c r="S30" s="134"/>
-      <c r="T30" s="134"/>
-      <c r="U30" s="134"/>
-      <c r="V30" s="134"/>
-      <c r="W30" s="134"/>
-      <c r="X30" s="134"/>
-      <c r="Y30" s="134"/>
-      <c r="Z30" s="134"/>
-      <c r="AA30" s="134"/>
-      <c r="AB30" s="134"/>
-      <c r="AC30" s="134"/>
-      <c r="AD30" s="134"/>
-      <c r="AE30" s="134"/>
-      <c r="AF30" s="134"/>
-      <c r="AG30" s="134"/>
-      <c r="AH30" s="134"/>
-      <c r="AI30" s="134"/>
-      <c r="AJ30" s="134"/>
-      <c r="AK30" s="134"/>
-      <c r="AL30" s="134"/>
-      <c r="AM30" s="134"/>
-      <c r="AN30" s="134"/>
-      <c r="AO30" s="135"/>
+      <c r="C30" s="126"/>
+      <c r="D30" s="126"/>
+      <c r="E30" s="127"/>
+      <c r="F30" s="128"/>
+      <c r="G30" s="129"/>
+      <c r="H30" s="129"/>
+      <c r="I30" s="129"/>
+      <c r="J30" s="129"/>
+      <c r="K30" s="129"/>
+      <c r="L30" s="129"/>
+      <c r="M30" s="129"/>
+      <c r="N30" s="129"/>
+      <c r="O30" s="129"/>
+      <c r="P30" s="129"/>
+      <c r="Q30" s="129"/>
+      <c r="R30" s="129"/>
+      <c r="S30" s="129"/>
+      <c r="T30" s="129"/>
+      <c r="U30" s="129"/>
+      <c r="V30" s="129"/>
+      <c r="W30" s="129"/>
+      <c r="X30" s="129"/>
+      <c r="Y30" s="129"/>
+      <c r="Z30" s="129"/>
+      <c r="AA30" s="129"/>
+      <c r="AB30" s="129"/>
+      <c r="AC30" s="129"/>
+      <c r="AD30" s="129"/>
+      <c r="AE30" s="129"/>
+      <c r="AF30" s="129"/>
+      <c r="AG30" s="129"/>
+      <c r="AH30" s="129"/>
+      <c r="AI30" s="129"/>
+      <c r="AJ30" s="129"/>
+      <c r="AK30" s="129"/>
+      <c r="AL30" s="129"/>
+      <c r="AM30" s="129"/>
+      <c r="AN30" s="129"/>
+      <c r="AO30" s="130"/>
       <c r="AP30" s="11"/>
     </row>
-    <row r="31" spans="1:42">
-      <c r="B31" s="136" t="s">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B31" s="131" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="137"/>
-      <c r="D31" s="137"/>
-      <c r="E31" s="138"/>
-      <c r="F31" s="133"/>
-      <c r="G31" s="134"/>
-      <c r="H31" s="134"/>
-      <c r="I31" s="134"/>
-      <c r="J31" s="134"/>
-      <c r="K31" s="134"/>
-      <c r="L31" s="134"/>
-      <c r="M31" s="134"/>
-      <c r="N31" s="134"/>
-      <c r="O31" s="134"/>
-      <c r="P31" s="134"/>
-      <c r="Q31" s="134"/>
-      <c r="R31" s="134"/>
-      <c r="S31" s="134"/>
-      <c r="T31" s="134"/>
-      <c r="U31" s="134"/>
-      <c r="V31" s="134"/>
-      <c r="W31" s="134"/>
-      <c r="X31" s="134"/>
-      <c r="Y31" s="134"/>
-      <c r="Z31" s="134"/>
-      <c r="AA31" s="134"/>
-      <c r="AB31" s="134"/>
-      <c r="AC31" s="134"/>
-      <c r="AD31" s="134"/>
-      <c r="AE31" s="134"/>
-      <c r="AF31" s="134"/>
-      <c r="AG31" s="134"/>
-      <c r="AH31" s="134"/>
-      <c r="AI31" s="134"/>
-      <c r="AJ31" s="134"/>
-      <c r="AK31" s="134"/>
-      <c r="AL31" s="134"/>
-      <c r="AM31" s="134"/>
-      <c r="AN31" s="134"/>
-      <c r="AO31" s="135"/>
+      <c r="C31" s="132"/>
+      <c r="D31" s="132"/>
+      <c r="E31" s="133"/>
+      <c r="F31" s="128"/>
+      <c r="G31" s="129"/>
+      <c r="H31" s="129"/>
+      <c r="I31" s="129"/>
+      <c r="J31" s="129"/>
+      <c r="K31" s="129"/>
+      <c r="L31" s="129"/>
+      <c r="M31" s="129"/>
+      <c r="N31" s="129"/>
+      <c r="O31" s="129"/>
+      <c r="P31" s="129"/>
+      <c r="Q31" s="129"/>
+      <c r="R31" s="129"/>
+      <c r="S31" s="129"/>
+      <c r="T31" s="129"/>
+      <c r="U31" s="129"/>
+      <c r="V31" s="129"/>
+      <c r="W31" s="129"/>
+      <c r="X31" s="129"/>
+      <c r="Y31" s="129"/>
+      <c r="Z31" s="129"/>
+      <c r="AA31" s="129"/>
+      <c r="AB31" s="129"/>
+      <c r="AC31" s="129"/>
+      <c r="AD31" s="129"/>
+      <c r="AE31" s="129"/>
+      <c r="AF31" s="129"/>
+      <c r="AG31" s="129"/>
+      <c r="AH31" s="129"/>
+      <c r="AI31" s="129"/>
+      <c r="AJ31" s="129"/>
+      <c r="AK31" s="129"/>
+      <c r="AL31" s="129"/>
+      <c r="AM31" s="129"/>
+      <c r="AN31" s="129"/>
+      <c r="AO31" s="130"/>
       <c r="AP31" s="11"/>
     </row>
-    <row r="32" spans="1:42" ht="15.75" thickBot="1">
-      <c r="B32" s="105" t="s">
+    <row r="32" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="106"/>
-      <c r="D32" s="106"/>
-      <c r="E32" s="107"/>
-      <c r="F32" s="108"/>
-      <c r="G32" s="109"/>
-      <c r="H32" s="109"/>
-      <c r="I32" s="109"/>
-      <c r="J32" s="109"/>
-      <c r="K32" s="109"/>
-      <c r="L32" s="109"/>
-      <c r="M32" s="109"/>
-      <c r="N32" s="109"/>
-      <c r="O32" s="109"/>
-      <c r="P32" s="109"/>
-      <c r="Q32" s="109"/>
-      <c r="R32" s="109"/>
-      <c r="S32" s="109"/>
-      <c r="T32" s="109"/>
-      <c r="U32" s="109"/>
-      <c r="V32" s="109"/>
-      <c r="W32" s="109"/>
-      <c r="X32" s="109"/>
-      <c r="Y32" s="109"/>
-      <c r="Z32" s="109"/>
-      <c r="AA32" s="109"/>
-      <c r="AB32" s="109"/>
-      <c r="AC32" s="109"/>
-      <c r="AD32" s="109"/>
-      <c r="AE32" s="109"/>
-      <c r="AF32" s="109"/>
-      <c r="AG32" s="109"/>
-      <c r="AH32" s="109"/>
-      <c r="AI32" s="109"/>
-      <c r="AJ32" s="109"/>
-      <c r="AK32" s="109"/>
-      <c r="AL32" s="109"/>
-      <c r="AM32" s="109"/>
-      <c r="AN32" s="109"/>
-      <c r="AO32" s="110"/>
+      <c r="C32" s="96"/>
+      <c r="D32" s="96"/>
+      <c r="E32" s="97"/>
+      <c r="F32" s="98"/>
+      <c r="G32" s="99"/>
+      <c r="H32" s="99"/>
+      <c r="I32" s="99"/>
+      <c r="J32" s="99"/>
+      <c r="K32" s="99"/>
+      <c r="L32" s="99"/>
+      <c r="M32" s="99"/>
+      <c r="N32" s="99"/>
+      <c r="O32" s="99"/>
+      <c r="P32" s="99"/>
+      <c r="Q32" s="99"/>
+      <c r="R32" s="99"/>
+      <c r="S32" s="99"/>
+      <c r="T32" s="99"/>
+      <c r="U32" s="99"/>
+      <c r="V32" s="99"/>
+      <c r="W32" s="99"/>
+      <c r="X32" s="99"/>
+      <c r="Y32" s="99"/>
+      <c r="Z32" s="99"/>
+      <c r="AA32" s="99"/>
+      <c r="AB32" s="99"/>
+      <c r="AC32" s="99"/>
+      <c r="AD32" s="99"/>
+      <c r="AE32" s="99"/>
+      <c r="AF32" s="99"/>
+      <c r="AG32" s="99"/>
+      <c r="AH32" s="99"/>
+      <c r="AI32" s="99"/>
+      <c r="AJ32" s="99"/>
+      <c r="AK32" s="99"/>
+      <c r="AL32" s="99"/>
+      <c r="AM32" s="99"/>
+      <c r="AN32" s="99"/>
+      <c r="AO32" s="100"/>
       <c r="AP32" s="11"/>
     </row>
-    <row r="33" spans="1:90" ht="15.75" thickBot="1">
+    <row r="33" spans="1:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
@@ -32537,7 +32542,7 @@
       <c r="AO33" s="11"/>
       <c r="AP33" s="11"/>
     </row>
-    <row r="34" spans="1:90">
+    <row r="34" spans="1:90" x14ac:dyDescent="0.25">
       <c r="B34" s="15" t="s">
         <v>30</v>
       </c>
@@ -32589,7 +32594,7 @@
       <c r="AL34" s="15"/>
       <c r="AN34" s="11"/>
     </row>
-    <row r="35" spans="1:90">
+    <row r="35" spans="1:90" x14ac:dyDescent="0.25">
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
@@ -32632,7 +32637,7 @@
       <c r="AO35" s="11"/>
       <c r="AP35" s="11"/>
     </row>
-    <row r="36" spans="1:90">
+    <row r="36" spans="1:90" x14ac:dyDescent="0.25">
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
@@ -32675,7 +32680,7 @@
       <c r="AO36" s="11"/>
       <c r="AP36" s="11"/>
     </row>
-    <row r="37" spans="1:90" ht="15.75" thickBot="1">
+    <row r="37" spans="1:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="21" t="s">
         <v>39</v>
       </c>
@@ -32720,26 +32725,26 @@
       <c r="AO37" s="11"/>
       <c r="AP37" s="11"/>
     </row>
-    <row r="38" spans="1:90" ht="18" customHeight="1" thickBot="1">
+    <row r="38" spans="1:90" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
-      <c r="B38" s="111" t="s">
+      <c r="B38" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="112"/>
-      <c r="D38" s="112"/>
-      <c r="E38" s="112"/>
-      <c r="F38" s="112"/>
-      <c r="G38" s="113"/>
-      <c r="H38" s="62" t="s">
+      <c r="C38" s="102"/>
+      <c r="D38" s="102"/>
+      <c r="E38" s="102"/>
+      <c r="F38" s="102"/>
+      <c r="G38" s="103"/>
+      <c r="H38" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="I38" s="63"/>
-      <c r="J38" s="64"/>
-      <c r="K38" s="114" t="s">
+      <c r="I38" s="105"/>
+      <c r="J38" s="106"/>
+      <c r="K38" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="L38" s="115"/>
-      <c r="M38" s="116"/>
+      <c r="L38" s="108"/>
+      <c r="M38" s="109"/>
       <c r="N38" s="11"/>
       <c r="O38" s="11"/>
       <c r="P38" s="11"/>
@@ -32770,27 +32775,27 @@
       <c r="AO38" s="11"/>
       <c r="AP38" s="11"/>
     </row>
-    <row r="39" spans="1:90" ht="14.25" customHeight="1">
+    <row r="39" spans="1:90" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
-      <c r="B39" s="155" t="s">
+      <c r="B39" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="156"/>
-      <c r="D39" s="156"/>
-      <c r="E39" s="156"/>
-      <c r="F39" s="156"/>
-      <c r="G39" s="157"/>
-      <c r="H39" s="158">
+      <c r="C39" s="77"/>
+      <c r="D39" s="77"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="78"/>
+      <c r="H39" s="79">
         <v>8</v>
       </c>
-      <c r="I39" s="159"/>
-      <c r="J39" s="160"/>
-      <c r="K39" s="161">
+      <c r="I39" s="80"/>
+      <c r="J39" s="81"/>
+      <c r="K39" s="82">
         <f>ROUND((H39/H42)*100,0)</f>
         <v>100</v>
       </c>
-      <c r="L39" s="162"/>
-      <c r="M39" s="163"/>
+      <c r="L39" s="83"/>
+      <c r="M39" s="84"/>
       <c r="N39" s="11"/>
       <c r="O39" s="11"/>
       <c r="P39" s="11"/>
@@ -32821,27 +32826,27 @@
       <c r="AO39" s="11"/>
       <c r="AP39" s="11"/>
     </row>
-    <row r="40" spans="1:90" ht="14.25" customHeight="1">
+    <row r="40" spans="1:90" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
-      <c r="B40" s="68" t="s">
+      <c r="B40" s="156" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="69"/>
-      <c r="D40" s="69"/>
-      <c r="E40" s="69"/>
-      <c r="F40" s="69"/>
-      <c r="G40" s="70"/>
-      <c r="H40" s="71">
+      <c r="C40" s="157"/>
+      <c r="D40" s="157"/>
+      <c r="E40" s="157"/>
+      <c r="F40" s="157"/>
+      <c r="G40" s="158"/>
+      <c r="H40" s="159">
         <v>0</v>
       </c>
-      <c r="I40" s="72"/>
-      <c r="J40" s="73"/>
-      <c r="K40" s="143">
+      <c r="I40" s="160"/>
+      <c r="J40" s="161"/>
+      <c r="K40" s="64">
         <f>ROUND((H40/H42)*100,0)</f>
         <v>0</v>
       </c>
-      <c r="L40" s="144"/>
-      <c r="M40" s="145"/>
+      <c r="L40" s="65"/>
+      <c r="M40" s="66"/>
       <c r="N40" s="11"/>
       <c r="O40" s="11"/>
       <c r="P40" s="11"/>
@@ -32872,27 +32877,27 @@
       <c r="AO40" s="11"/>
       <c r="AP40" s="11"/>
     </row>
-    <row r="41" spans="1:90" ht="14.25" customHeight="1" thickBot="1">
+    <row r="41" spans="1:90" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
-      <c r="B41" s="146" t="s">
+      <c r="B41" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="147"/>
-      <c r="D41" s="147"/>
-      <c r="E41" s="147"/>
-      <c r="F41" s="147"/>
-      <c r="G41" s="148"/>
-      <c r="H41" s="149">
+      <c r="C41" s="68"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="69"/>
+      <c r="H41" s="70">
         <v>0</v>
       </c>
-      <c r="I41" s="150"/>
-      <c r="J41" s="151"/>
-      <c r="K41" s="152">
+      <c r="I41" s="71"/>
+      <c r="J41" s="72"/>
+      <c r="K41" s="73">
         <f>ROUND((H41/H42)*100,0)</f>
         <v>0</v>
       </c>
-      <c r="L41" s="153"/>
-      <c r="M41" s="154"/>
+      <c r="L41" s="74"/>
+      <c r="M41" s="75"/>
       <c r="N41" s="11"/>
       <c r="O41" s="11"/>
       <c r="P41" s="11"/>
@@ -32923,27 +32928,27 @@
       <c r="AO41" s="11"/>
       <c r="AP41" s="11"/>
     </row>
-    <row r="42" spans="1:90" ht="14.25" customHeight="1" thickBot="1">
+    <row r="42" spans="1:90" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
-      <c r="B42" s="164" t="s">
+      <c r="B42" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="C42" s="165"/>
-      <c r="D42" s="165"/>
-      <c r="E42" s="165"/>
-      <c r="F42" s="165"/>
-      <c r="G42" s="166"/>
-      <c r="H42" s="62">
+      <c r="C42" s="86"/>
+      <c r="D42" s="86"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="86"/>
+      <c r="G42" s="87"/>
+      <c r="H42" s="104">
         <v>8</v>
       </c>
-      <c r="I42" s="63"/>
-      <c r="J42" s="64"/>
-      <c r="K42" s="65">
+      <c r="I42" s="105"/>
+      <c r="J42" s="106"/>
+      <c r="K42" s="153">
         <f>SUM(K39:M41)</f>
         <v>100</v>
       </c>
-      <c r="L42" s="66"/>
-      <c r="M42" s="67"/>
+      <c r="L42" s="154"/>
+      <c r="M42" s="155"/>
       <c r="N42" s="11"/>
       <c r="O42" s="11"/>
       <c r="P42" s="11"/>
@@ -32974,7 +32979,7 @@
       <c r="AO42" s="11"/>
       <c r="AP42" s="11"/>
     </row>
-    <row r="43" spans="1:90">
+    <row r="43" spans="1:90" x14ac:dyDescent="0.25">
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
@@ -33017,7 +33022,7 @@
       <c r="AO43" s="11"/>
       <c r="AP43" s="11"/>
     </row>
-    <row r="44" spans="1:90">
+    <row r="44" spans="1:90" x14ac:dyDescent="0.25">
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
@@ -33060,7 +33065,7 @@
       <c r="AO44" s="11"/>
       <c r="AP44" s="11"/>
     </row>
-    <row r="45" spans="1:90" ht="15.75" thickBot="1">
+    <row r="45" spans="1:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="25" t="s">
         <v>47</v>
       </c>
@@ -33105,116 +33110,116 @@
       <c r="AO45" s="11"/>
       <c r="AP45" s="11"/>
     </row>
-    <row r="46" spans="1:90" ht="43.5" customHeight="1">
-      <c r="B46" s="167" t="s">
+    <row r="46" spans="1:90" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="168"/>
-      <c r="D46" s="142" t="s">
+      <c r="C46" s="89"/>
+      <c r="D46" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="E46" s="168"/>
-      <c r="F46" s="142" t="s">
+      <c r="E46" s="89"/>
+      <c r="F46" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="G46" s="142"/>
-      <c r="H46" s="168" t="s">
+      <c r="G46" s="57"/>
+      <c r="H46" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="I46" s="168"/>
-      <c r="J46" s="168"/>
-      <c r="K46" s="142" t="s">
+      <c r="I46" s="89"/>
+      <c r="J46" s="89"/>
+      <c r="K46" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="L46" s="142"/>
-      <c r="M46" s="142"/>
-      <c r="N46" s="142" t="s">
+      <c r="L46" s="57"/>
+      <c r="M46" s="57"/>
+      <c r="N46" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="O46" s="142"/>
-      <c r="P46" s="142"/>
-      <c r="Q46" s="142" t="s">
+      <c r="O46" s="57"/>
+      <c r="P46" s="57"/>
+      <c r="Q46" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="R46" s="142"/>
-      <c r="S46" s="142" t="s">
+      <c r="R46" s="57"/>
+      <c r="S46" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="T46" s="142"/>
-      <c r="U46" s="142"/>
-      <c r="V46" s="142"/>
-      <c r="W46" s="142"/>
-      <c r="X46" s="142"/>
-      <c r="Y46" s="142" t="s">
+      <c r="T46" s="57"/>
+      <c r="U46" s="57"/>
+      <c r="V46" s="57"/>
+      <c r="W46" s="57"/>
+      <c r="X46" s="57"/>
+      <c r="Y46" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="Z46" s="142"/>
-      <c r="AA46" s="142"/>
-      <c r="AB46" s="142"/>
-      <c r="AC46" s="142"/>
-      <c r="AD46" s="142"/>
-      <c r="AE46" s="142"/>
-      <c r="AF46" s="142"/>
-      <c r="AG46" s="142"/>
-      <c r="AH46" s="142"/>
-      <c r="AI46" s="142"/>
-      <c r="AJ46" s="142"/>
-      <c r="AK46" s="142"/>
-      <c r="AL46" s="142"/>
-      <c r="AM46" s="142"/>
-      <c r="AN46" s="142"/>
-      <c r="AO46" s="142"/>
+      <c r="Z46" s="57"/>
+      <c r="AA46" s="57"/>
+      <c r="AB46" s="57"/>
+      <c r="AC46" s="57"/>
+      <c r="AD46" s="57"/>
+      <c r="AE46" s="57"/>
+      <c r="AF46" s="57"/>
+      <c r="AG46" s="57"/>
+      <c r="AH46" s="57"/>
+      <c r="AI46" s="57"/>
+      <c r="AJ46" s="57"/>
+      <c r="AK46" s="57"/>
+      <c r="AL46" s="57"/>
+      <c r="AM46" s="57"/>
+      <c r="AN46" s="57"/>
+      <c r="AO46" s="57"/>
       <c r="AP46" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="AQ46" s="142" t="s">
+      <c r="AQ46" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="AR46" s="142"/>
-      <c r="AS46" s="142"/>
-      <c r="AT46" s="142"/>
-      <c r="AU46" s="142"/>
-      <c r="AV46" s="142"/>
-      <c r="AW46" s="142"/>
-      <c r="AX46" s="142"/>
-      <c r="AY46" s="142" t="s">
+      <c r="AR46" s="57"/>
+      <c r="AS46" s="57"/>
+      <c r="AT46" s="57"/>
+      <c r="AU46" s="57"/>
+      <c r="AV46" s="57"/>
+      <c r="AW46" s="57"/>
+      <c r="AX46" s="57"/>
+      <c r="AY46" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="AZ46" s="142"/>
-      <c r="BA46" s="142"/>
-      <c r="BB46" s="142"/>
-      <c r="BC46" s="142"/>
-      <c r="BD46" s="142"/>
-      <c r="BE46" s="142"/>
-      <c r="BF46" s="53" t="s">
+      <c r="AZ46" s="57"/>
+      <c r="BA46" s="57"/>
+      <c r="BB46" s="57"/>
+      <c r="BC46" s="57"/>
+      <c r="BD46" s="57"/>
+      <c r="BE46" s="57"/>
+      <c r="BF46" s="170" t="s">
         <v>59</v>
       </c>
-      <c r="BG46" s="53"/>
-      <c r="BH46" s="53"/>
-      <c r="BI46" s="53"/>
-      <c r="BJ46" s="53"/>
-      <c r="BK46" s="53"/>
-      <c r="BL46" s="53"/>
-      <c r="BM46" s="53"/>
-      <c r="BN46" s="53"/>
-      <c r="BO46" s="53"/>
-      <c r="BP46" s="53" t="s">
+      <c r="BG46" s="170"/>
+      <c r="BH46" s="170"/>
+      <c r="BI46" s="170"/>
+      <c r="BJ46" s="170"/>
+      <c r="BK46" s="170"/>
+      <c r="BL46" s="170"/>
+      <c r="BM46" s="170"/>
+      <c r="BN46" s="170"/>
+      <c r="BO46" s="170"/>
+      <c r="BP46" s="170" t="s">
         <v>60</v>
       </c>
-      <c r="BQ46" s="53"/>
-      <c r="BR46" s="53"/>
-      <c r="BS46" s="53"/>
-      <c r="BT46" s="53"/>
-      <c r="BU46" s="53"/>
-      <c r="BV46" s="53"/>
-      <c r="BW46" s="53"/>
-      <c r="BX46" s="53"/>
-      <c r="BY46" s="53"/>
-      <c r="BZ46" s="53"/>
-      <c r="CA46" s="53"/>
-      <c r="CB46" s="53"/>
-      <c r="CC46" s="53"/>
-      <c r="CD46" s="53"/>
+      <c r="BQ46" s="170"/>
+      <c r="BR46" s="170"/>
+      <c r="BS46" s="170"/>
+      <c r="BT46" s="170"/>
+      <c r="BU46" s="170"/>
+      <c r="BV46" s="170"/>
+      <c r="BW46" s="170"/>
+      <c r="BX46" s="170"/>
+      <c r="BY46" s="170"/>
+      <c r="BZ46" s="170"/>
+      <c r="CA46" s="170"/>
+      <c r="CB46" s="170"/>
+      <c r="CC46" s="170"/>
+      <c r="CD46" s="170"/>
       <c r="CE46" s="26" t="s">
         <v>61</v>
       </c>
@@ -33224,122 +33229,122 @@
       <c r="CG46" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="CH46" s="44" t="s">
+      <c r="CH46" s="165" t="s">
         <v>64</v>
       </c>
-      <c r="CI46" s="45"/>
-      <c r="CJ46" s="46"/>
+      <c r="CI46" s="166"/>
+      <c r="CJ46" s="167"/>
     </row>
-    <row r="47" spans="1:90" s="27" customFormat="1" ht="139.5" customHeight="1">
-      <c r="B47" s="40" t="s">
+    <row r="47" spans="1:90" s="27" customFormat="1" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="41"/>
-      <c r="D47" s="41" t="s">
+      <c r="C47" s="49"/>
+      <c r="D47" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="E47" s="41"/>
-      <c r="F47" s="42" t="s">
+      <c r="E47" s="49"/>
+      <c r="F47" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="G47" s="43"/>
-      <c r="H47" s="41" t="s">
+      <c r="G47" s="56"/>
+      <c r="H47" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="I47" s="41"/>
-      <c r="J47" s="41"/>
-      <c r="K47" s="41">
+      <c r="I47" s="49"/>
+      <c r="J47" s="49"/>
+      <c r="K47" s="49">
         <v>1</v>
       </c>
-      <c r="L47" s="41"/>
-      <c r="M47" s="41"/>
-      <c r="N47" s="41">
+      <c r="L47" s="49"/>
+      <c r="M47" s="49"/>
+      <c r="N47" s="49">
         <v>1</v>
       </c>
-      <c r="O47" s="41"/>
-      <c r="P47" s="41"/>
-      <c r="Q47" s="41">
+      <c r="O47" s="49"/>
+      <c r="P47" s="49"/>
+      <c r="Q47" s="49">
         <v>3</v>
       </c>
-      <c r="R47" s="41"/>
-      <c r="S47" s="76" t="s">
+      <c r="R47" s="49"/>
+      <c r="S47" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="T47" s="74"/>
-      <c r="U47" s="74"/>
-      <c r="V47" s="74"/>
-      <c r="W47" s="74"/>
-      <c r="X47" s="75"/>
-      <c r="Y47" s="51" t="s">
+      <c r="T47" s="53"/>
+      <c r="U47" s="53"/>
+      <c r="V47" s="53"/>
+      <c r="W47" s="53"/>
+      <c r="X47" s="54"/>
+      <c r="Y47" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="Z47" s="52"/>
-      <c r="AA47" s="52"/>
-      <c r="AB47" s="52"/>
-      <c r="AC47" s="52"/>
-      <c r="AD47" s="52"/>
-      <c r="AE47" s="52"/>
-      <c r="AF47" s="52"/>
-      <c r="AG47" s="52"/>
-      <c r="AH47" s="52"/>
-      <c r="AI47" s="52"/>
-      <c r="AJ47" s="52"/>
-      <c r="AK47" s="52"/>
-      <c r="AL47" s="52"/>
-      <c r="AM47" s="52"/>
-      <c r="AN47" s="52"/>
-      <c r="AO47" s="52"/>
+      <c r="Z47" s="47"/>
+      <c r="AA47" s="47"/>
+      <c r="AB47" s="47"/>
+      <c r="AC47" s="47"/>
+      <c r="AD47" s="47"/>
+      <c r="AE47" s="47"/>
+      <c r="AF47" s="47"/>
+      <c r="AG47" s="47"/>
+      <c r="AH47" s="47"/>
+      <c r="AI47" s="47"/>
+      <c r="AJ47" s="47"/>
+      <c r="AK47" s="47"/>
+      <c r="AL47" s="47"/>
+      <c r="AM47" s="47"/>
+      <c r="AN47" s="47"/>
+      <c r="AO47" s="47"/>
       <c r="AP47" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="AQ47" s="51" t="s">
+      <c r="AQ47" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="AR47" s="52"/>
-      <c r="AS47" s="52"/>
-      <c r="AT47" s="52"/>
-      <c r="AU47" s="52"/>
-      <c r="AV47" s="52"/>
-      <c r="AW47" s="52"/>
-      <c r="AX47" s="52"/>
-      <c r="AY47" s="47" t="s">
+      <c r="AR47" s="47"/>
+      <c r="AS47" s="47"/>
+      <c r="AT47" s="47"/>
+      <c r="AU47" s="47"/>
+      <c r="AV47" s="47"/>
+      <c r="AW47" s="47"/>
+      <c r="AX47" s="47"/>
+      <c r="AY47" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="AZ47" s="41"/>
-      <c r="BA47" s="41"/>
-      <c r="BB47" s="41"/>
-      <c r="BC47" s="41"/>
-      <c r="BD47" s="41"/>
-      <c r="BE47" s="58"/>
-      <c r="BF47" s="59" t="s">
+      <c r="AZ47" s="49"/>
+      <c r="BA47" s="49"/>
+      <c r="BB47" s="49"/>
+      <c r="BC47" s="49"/>
+      <c r="BD47" s="49"/>
+      <c r="BE47" s="50"/>
+      <c r="BF47" s="173" t="s">
         <v>73</v>
       </c>
-      <c r="BG47" s="60"/>
-      <c r="BH47" s="60"/>
-      <c r="BI47" s="60"/>
-      <c r="BJ47" s="60"/>
-      <c r="BK47" s="60"/>
-      <c r="BL47" s="60"/>
-      <c r="BM47" s="60"/>
-      <c r="BN47" s="60"/>
-      <c r="BO47" s="60"/>
-      <c r="BP47" s="173" t="s">
+      <c r="BG47" s="93"/>
+      <c r="BH47" s="93"/>
+      <c r="BI47" s="93"/>
+      <c r="BJ47" s="93"/>
+      <c r="BK47" s="93"/>
+      <c r="BL47" s="93"/>
+      <c r="BM47" s="93"/>
+      <c r="BN47" s="93"/>
+      <c r="BO47" s="93"/>
+      <c r="BP47" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="BQ47" s="57"/>
-      <c r="BR47" s="57"/>
-      <c r="BS47" s="57"/>
-      <c r="BT47" s="57"/>
-      <c r="BU47" s="57"/>
-      <c r="BV47" s="57"/>
-      <c r="BW47" s="57"/>
-      <c r="BX47" s="57"/>
-      <c r="BY47" s="57"/>
-      <c r="BZ47" s="57"/>
-      <c r="CA47" s="57"/>
-      <c r="CB47" s="57"/>
-      <c r="CC47" s="57"/>
-      <c r="CD47" s="57"/>
+      <c r="BQ47" s="45"/>
+      <c r="BR47" s="45"/>
+      <c r="BS47" s="45"/>
+      <c r="BT47" s="45"/>
+      <c r="BU47" s="45"/>
+      <c r="BV47" s="45"/>
+      <c r="BW47" s="45"/>
+      <c r="BX47" s="45"/>
+      <c r="BY47" s="45"/>
+      <c r="BZ47" s="45"/>
+      <c r="CA47" s="45"/>
+      <c r="CB47" s="45"/>
+      <c r="CC47" s="45"/>
+      <c r="CD47" s="45"/>
       <c r="CE47" s="39" t="s">
         <v>75</v>
       </c>
@@ -33349,124 +33354,124 @@
       <c r="CG47" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="CH47" s="47" t="s">
+      <c r="CH47" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="CI47" s="41"/>
-      <c r="CJ47" s="48"/>
+      <c r="CI47" s="49"/>
+      <c r="CJ47" s="162"/>
       <c r="CK47"/>
       <c r="CL47"/>
     </row>
-    <row r="48" spans="1:90" s="27" customFormat="1" ht="123" customHeight="1">
-      <c r="B48" s="40" t="s">
+    <row r="48" spans="1:90" s="27" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41" t="s">
+      <c r="C48" s="49"/>
+      <c r="D48" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="E48" s="41"/>
-      <c r="F48" s="42" t="s">
+      <c r="E48" s="49"/>
+      <c r="F48" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="G48" s="43"/>
-      <c r="H48" s="41" t="s">
+      <c r="G48" s="56"/>
+      <c r="H48" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="I48" s="41"/>
-      <c r="J48" s="41"/>
-      <c r="K48" s="41">
+      <c r="I48" s="49"/>
+      <c r="J48" s="49"/>
+      <c r="K48" s="49">
         <v>1</v>
       </c>
-      <c r="L48" s="41"/>
-      <c r="M48" s="41"/>
-      <c r="N48" s="41">
+      <c r="L48" s="49"/>
+      <c r="M48" s="49"/>
+      <c r="N48" s="49">
         <v>1</v>
       </c>
-      <c r="O48" s="41"/>
-      <c r="P48" s="41"/>
-      <c r="Q48" s="41">
+      <c r="O48" s="49"/>
+      <c r="P48" s="49"/>
+      <c r="Q48" s="49">
         <v>3</v>
       </c>
-      <c r="R48" s="41"/>
-      <c r="S48" s="76" t="s">
+      <c r="R48" s="49"/>
+      <c r="S48" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="T48" s="74"/>
-      <c r="U48" s="74"/>
-      <c r="V48" s="74"/>
-      <c r="W48" s="74"/>
-      <c r="X48" s="75"/>
-      <c r="Y48" s="51" t="s">
+      <c r="T48" s="53"/>
+      <c r="U48" s="53"/>
+      <c r="V48" s="53"/>
+      <c r="W48" s="53"/>
+      <c r="X48" s="54"/>
+      <c r="Y48" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="Z48" s="52"/>
-      <c r="AA48" s="52"/>
-      <c r="AB48" s="52"/>
-      <c r="AC48" s="52"/>
-      <c r="AD48" s="52"/>
-      <c r="AE48" s="52"/>
-      <c r="AF48" s="52"/>
-      <c r="AG48" s="52"/>
-      <c r="AH48" s="52"/>
-      <c r="AI48" s="52"/>
-      <c r="AJ48" s="52"/>
-      <c r="AK48" s="52"/>
-      <c r="AL48" s="52"/>
-      <c r="AM48" s="52"/>
-      <c r="AN48" s="52"/>
-      <c r="AO48" s="52"/>
+      <c r="Z48" s="47"/>
+      <c r="AA48" s="47"/>
+      <c r="AB48" s="47"/>
+      <c r="AC48" s="47"/>
+      <c r="AD48" s="47"/>
+      <c r="AE48" s="47"/>
+      <c r="AF48" s="47"/>
+      <c r="AG48" s="47"/>
+      <c r="AH48" s="47"/>
+      <c r="AI48" s="47"/>
+      <c r="AJ48" s="47"/>
+      <c r="AK48" s="47"/>
+      <c r="AL48" s="47"/>
+      <c r="AM48" s="47"/>
+      <c r="AN48" s="47"/>
+      <c r="AO48" s="47"/>
       <c r="AP48" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="AQ48" s="51" t="s">
+      <c r="AQ48" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="AR48" s="52"/>
-      <c r="AS48" s="52"/>
-      <c r="AT48" s="52"/>
-      <c r="AU48" s="52"/>
-      <c r="AV48" s="52"/>
-      <c r="AW48" s="52"/>
-      <c r="AX48" s="52"/>
-      <c r="AY48" s="47" t="s">
+      <c r="AR48" s="47"/>
+      <c r="AS48" s="47"/>
+      <c r="AT48" s="47"/>
+      <c r="AU48" s="47"/>
+      <c r="AV48" s="47"/>
+      <c r="AW48" s="47"/>
+      <c r="AX48" s="47"/>
+      <c r="AY48" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="AZ48" s="41"/>
-      <c r="BA48" s="41"/>
-      <c r="BB48" s="41"/>
-      <c r="BC48" s="41"/>
-      <c r="BD48" s="41"/>
-      <c r="BE48" s="58"/>
-      <c r="BF48" s="56" t="s">
+      <c r="AZ48" s="49"/>
+      <c r="BA48" s="49"/>
+      <c r="BB48" s="49"/>
+      <c r="BC48" s="49"/>
+      <c r="BD48" s="49"/>
+      <c r="BE48" s="50"/>
+      <c r="BF48" s="172" t="s">
+        <v>131</v>
+      </c>
+      <c r="BG48" s="45"/>
+      <c r="BH48" s="45"/>
+      <c r="BI48" s="45"/>
+      <c r="BJ48" s="45"/>
+      <c r="BK48" s="45"/>
+      <c r="BL48" s="45"/>
+      <c r="BM48" s="45"/>
+      <c r="BN48" s="45"/>
+      <c r="BO48" s="45"/>
+      <c r="BP48" s="163" t="s">
         <v>80</v>
       </c>
-      <c r="BG48" s="57"/>
-      <c r="BH48" s="57"/>
-      <c r="BI48" s="57"/>
-      <c r="BJ48" s="57"/>
-      <c r="BK48" s="57"/>
-      <c r="BL48" s="57"/>
-      <c r="BM48" s="57"/>
-      <c r="BN48" s="57"/>
-      <c r="BO48" s="57"/>
-      <c r="BP48" s="61" t="s">
-        <v>81</v>
-      </c>
-      <c r="BQ48" s="55"/>
-      <c r="BR48" s="55"/>
-      <c r="BS48" s="55"/>
-      <c r="BT48" s="55"/>
-      <c r="BU48" s="55"/>
-      <c r="BV48" s="55"/>
-      <c r="BW48" s="55"/>
-      <c r="BX48" s="55"/>
-      <c r="BY48" s="55"/>
-      <c r="BZ48" s="55"/>
-      <c r="CA48" s="55"/>
-      <c r="CB48" s="55"/>
-      <c r="CC48" s="55"/>
-      <c r="CD48" s="55"/>
+      <c r="BQ48" s="164"/>
+      <c r="BR48" s="164"/>
+      <c r="BS48" s="164"/>
+      <c r="BT48" s="164"/>
+      <c r="BU48" s="164"/>
+      <c r="BV48" s="164"/>
+      <c r="BW48" s="164"/>
+      <c r="BX48" s="164"/>
+      <c r="BY48" s="164"/>
+      <c r="BZ48" s="164"/>
+      <c r="CA48" s="164"/>
+      <c r="CB48" s="164"/>
+      <c r="CC48" s="164"/>
+      <c r="CD48" s="164"/>
       <c r="CE48" s="38" t="s">
         <v>75</v>
       </c>
@@ -33476,124 +33481,124 @@
       <c r="CG48" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="CH48" s="47" t="s">
+      <c r="CH48" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="CI48" s="41"/>
-      <c r="CJ48" s="48"/>
+      <c r="CI48" s="49"/>
+      <c r="CJ48" s="162"/>
       <c r="CK48"/>
       <c r="CL48"/>
     </row>
-    <row r="49" spans="2:90" s="27" customFormat="1" ht="147" customHeight="1">
-      <c r="B49" s="40" t="s">
+    <row r="49" spans="2:90" s="27" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="E49" s="49"/>
+      <c r="F49" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49" s="56"/>
+      <c r="H49" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="I49" s="49"/>
+      <c r="J49" s="49"/>
+      <c r="K49" s="49">
+        <v>1</v>
+      </c>
+      <c r="L49" s="49"/>
+      <c r="M49" s="49"/>
+      <c r="N49" s="49">
+        <v>1</v>
+      </c>
+      <c r="O49" s="49"/>
+      <c r="P49" s="49"/>
+      <c r="Q49" s="49">
+        <v>3</v>
+      </c>
+      <c r="R49" s="49"/>
+      <c r="S49" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="41"/>
-      <c r="D49" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="E49" s="41"/>
-      <c r="F49" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="G49" s="43"/>
-      <c r="H49" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="I49" s="41"/>
-      <c r="J49" s="41"/>
-      <c r="K49" s="41">
-        <v>1</v>
-      </c>
-      <c r="L49" s="41"/>
-      <c r="M49" s="41"/>
-      <c r="N49" s="41">
-        <v>1</v>
-      </c>
-      <c r="O49" s="41"/>
-      <c r="P49" s="41"/>
-      <c r="Q49" s="41">
-        <v>3</v>
-      </c>
-      <c r="R49" s="41"/>
-      <c r="S49" s="76" t="s">
-        <v>83</v>
-      </c>
-      <c r="T49" s="74"/>
-      <c r="U49" s="74"/>
-      <c r="V49" s="74"/>
-      <c r="W49" s="74"/>
-      <c r="X49" s="75"/>
-      <c r="Y49" s="51" t="s">
+      <c r="T49" s="53"/>
+      <c r="U49" s="53"/>
+      <c r="V49" s="53"/>
+      <c r="W49" s="53"/>
+      <c r="X49" s="54"/>
+      <c r="Y49" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="Z49" s="52"/>
-      <c r="AA49" s="52"/>
-      <c r="AB49" s="52"/>
-      <c r="AC49" s="52"/>
-      <c r="AD49" s="52"/>
-      <c r="AE49" s="52"/>
-      <c r="AF49" s="52"/>
-      <c r="AG49" s="52"/>
-      <c r="AH49" s="52"/>
-      <c r="AI49" s="52"/>
-      <c r="AJ49" s="52"/>
-      <c r="AK49" s="52"/>
-      <c r="AL49" s="52"/>
-      <c r="AM49" s="52"/>
-      <c r="AN49" s="52"/>
-      <c r="AO49" s="52"/>
+      <c r="Z49" s="47"/>
+      <c r="AA49" s="47"/>
+      <c r="AB49" s="47"/>
+      <c r="AC49" s="47"/>
+      <c r="AD49" s="47"/>
+      <c r="AE49" s="47"/>
+      <c r="AF49" s="47"/>
+      <c r="AG49" s="47"/>
+      <c r="AH49" s="47"/>
+      <c r="AI49" s="47"/>
+      <c r="AJ49" s="47"/>
+      <c r="AK49" s="47"/>
+      <c r="AL49" s="47"/>
+      <c r="AM49" s="47"/>
+      <c r="AN49" s="47"/>
+      <c r="AO49" s="47"/>
       <c r="AP49" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="AQ49" s="51" t="s">
+      <c r="AQ49" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="AR49" s="52"/>
-      <c r="AS49" s="52"/>
-      <c r="AT49" s="52"/>
-      <c r="AU49" s="52"/>
-      <c r="AV49" s="52"/>
-      <c r="AW49" s="52"/>
-      <c r="AX49" s="52"/>
-      <c r="AY49" s="47" t="s">
+      <c r="AR49" s="47"/>
+      <c r="AS49" s="47"/>
+      <c r="AT49" s="47"/>
+      <c r="AU49" s="47"/>
+      <c r="AV49" s="47"/>
+      <c r="AW49" s="47"/>
+      <c r="AX49" s="47"/>
+      <c r="AY49" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="AZ49" s="41"/>
-      <c r="BA49" s="41"/>
-      <c r="BB49" s="41"/>
-      <c r="BC49" s="41"/>
-      <c r="BD49" s="41"/>
-      <c r="BE49" s="41"/>
-      <c r="BF49" s="49" t="s">
+      <c r="AZ49" s="49"/>
+      <c r="BA49" s="49"/>
+      <c r="BB49" s="49"/>
+      <c r="BC49" s="49"/>
+      <c r="BD49" s="49"/>
+      <c r="BE49" s="49"/>
+      <c r="BF49" s="168" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG49" s="169"/>
+      <c r="BH49" s="169"/>
+      <c r="BI49" s="169"/>
+      <c r="BJ49" s="169"/>
+      <c r="BK49" s="169"/>
+      <c r="BL49" s="169"/>
+      <c r="BM49" s="169"/>
+      <c r="BN49" s="169"/>
+      <c r="BO49" s="169"/>
+      <c r="BP49" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="BG49" s="50"/>
-      <c r="BH49" s="50"/>
-      <c r="BI49" s="50"/>
-      <c r="BJ49" s="50"/>
-      <c r="BK49" s="50"/>
-      <c r="BL49" s="50"/>
-      <c r="BM49" s="50"/>
-      <c r="BN49" s="50"/>
-      <c r="BO49" s="50"/>
-      <c r="BP49" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="BQ49" s="52"/>
-      <c r="BR49" s="52"/>
-      <c r="BS49" s="52"/>
-      <c r="BT49" s="52"/>
-      <c r="BU49" s="52"/>
-      <c r="BV49" s="52"/>
-      <c r="BW49" s="52"/>
-      <c r="BX49" s="52"/>
-      <c r="BY49" s="52"/>
-      <c r="BZ49" s="52"/>
-      <c r="CA49" s="52"/>
-      <c r="CB49" s="52"/>
-      <c r="CC49" s="52"/>
-      <c r="CD49" s="52"/>
+      <c r="BQ49" s="47"/>
+      <c r="BR49" s="47"/>
+      <c r="BS49" s="47"/>
+      <c r="BT49" s="47"/>
+      <c r="BU49" s="47"/>
+      <c r="BV49" s="47"/>
+      <c r="BW49" s="47"/>
+      <c r="BX49" s="47"/>
+      <c r="BY49" s="47"/>
+      <c r="BZ49" s="47"/>
+      <c r="CA49" s="47"/>
+      <c r="CB49" s="47"/>
+      <c r="CC49" s="47"/>
+      <c r="CD49" s="47"/>
       <c r="CE49" s="38" t="s">
         <v>75</v>
       </c>
@@ -33603,124 +33608,124 @@
       <c r="CG49" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="CH49" s="47" t="s">
+      <c r="CH49" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="CI49" s="41"/>
-      <c r="CJ49" s="48"/>
+      <c r="CI49" s="49"/>
+      <c r="CJ49" s="162"/>
       <c r="CK49"/>
       <c r="CL49"/>
     </row>
-    <row r="50" spans="2:90" s="27" customFormat="1" ht="138.6" customHeight="1">
-      <c r="B50" s="40" t="s">
+    <row r="50" spans="2:90" s="27" customFormat="1" ht="138.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="49"/>
+      <c r="D50" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="E50" s="49"/>
+      <c r="F50" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="G50" s="56"/>
+      <c r="H50" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="I50" s="49"/>
+      <c r="J50" s="49"/>
+      <c r="K50" s="49">
+        <v>1</v>
+      </c>
+      <c r="L50" s="49"/>
+      <c r="M50" s="49"/>
+      <c r="N50" s="49">
+        <v>1</v>
+      </c>
+      <c r="O50" s="49"/>
+      <c r="P50" s="49"/>
+      <c r="Q50" s="49">
+        <v>3</v>
+      </c>
+      <c r="R50" s="49"/>
+      <c r="S50" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C50" s="41"/>
-      <c r="D50" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="E50" s="41"/>
-      <c r="F50" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="G50" s="43"/>
-      <c r="H50" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="I50" s="41"/>
-      <c r="J50" s="41"/>
-      <c r="K50" s="41">
-        <v>1</v>
-      </c>
-      <c r="L50" s="41"/>
-      <c r="M50" s="41"/>
-      <c r="N50" s="41">
-        <v>1</v>
-      </c>
-      <c r="O50" s="41"/>
-      <c r="P50" s="41"/>
-      <c r="Q50" s="41">
-        <v>3</v>
-      </c>
-      <c r="R50" s="41"/>
-      <c r="S50" s="76" t="s">
-        <v>87</v>
-      </c>
-      <c r="T50" s="74"/>
-      <c r="U50" s="74"/>
-      <c r="V50" s="74"/>
-      <c r="W50" s="74"/>
-      <c r="X50" s="75"/>
-      <c r="Y50" s="51" t="s">
+      <c r="T50" s="53"/>
+      <c r="U50" s="53"/>
+      <c r="V50" s="53"/>
+      <c r="W50" s="53"/>
+      <c r="X50" s="54"/>
+      <c r="Y50" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="Z50" s="52"/>
-      <c r="AA50" s="52"/>
-      <c r="AB50" s="52"/>
-      <c r="AC50" s="52"/>
-      <c r="AD50" s="52"/>
-      <c r="AE50" s="52"/>
-      <c r="AF50" s="52"/>
-      <c r="AG50" s="52"/>
-      <c r="AH50" s="52"/>
-      <c r="AI50" s="52"/>
-      <c r="AJ50" s="52"/>
-      <c r="AK50" s="52"/>
-      <c r="AL50" s="52"/>
-      <c r="AM50" s="52"/>
-      <c r="AN50" s="52"/>
-      <c r="AO50" s="52"/>
+      <c r="Z50" s="47"/>
+      <c r="AA50" s="47"/>
+      <c r="AB50" s="47"/>
+      <c r="AC50" s="47"/>
+      <c r="AD50" s="47"/>
+      <c r="AE50" s="47"/>
+      <c r="AF50" s="47"/>
+      <c r="AG50" s="47"/>
+      <c r="AH50" s="47"/>
+      <c r="AI50" s="47"/>
+      <c r="AJ50" s="47"/>
+      <c r="AK50" s="47"/>
+      <c r="AL50" s="47"/>
+      <c r="AM50" s="47"/>
+      <c r="AN50" s="47"/>
+      <c r="AO50" s="47"/>
       <c r="AP50" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="AQ50" s="51" t="s">
+      <c r="AQ50" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="AR50" s="52"/>
-      <c r="AS50" s="52"/>
-      <c r="AT50" s="52"/>
-      <c r="AU50" s="52"/>
-      <c r="AV50" s="52"/>
-      <c r="AW50" s="52"/>
-      <c r="AX50" s="52"/>
-      <c r="AY50" s="47" t="s">
+      <c r="AR50" s="47"/>
+      <c r="AS50" s="47"/>
+      <c r="AT50" s="47"/>
+      <c r="AU50" s="47"/>
+      <c r="AV50" s="47"/>
+      <c r="AW50" s="47"/>
+      <c r="AX50" s="47"/>
+      <c r="AY50" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="AZ50" s="41"/>
-      <c r="BA50" s="41"/>
-      <c r="BB50" s="41"/>
-      <c r="BC50" s="41"/>
-      <c r="BD50" s="41"/>
-      <c r="BE50" s="41"/>
-      <c r="BF50" s="54" t="s">
-        <v>88</v>
+      <c r="AZ50" s="49"/>
+      <c r="BA50" s="49"/>
+      <c r="BB50" s="49"/>
+      <c r="BC50" s="49"/>
+      <c r="BD50" s="49"/>
+      <c r="BE50" s="49"/>
+      <c r="BF50" s="171" t="s">
+        <v>132</v>
       </c>
-      <c r="BG50" s="55"/>
-      <c r="BH50" s="55"/>
-      <c r="BI50" s="55"/>
-      <c r="BJ50" s="55"/>
-      <c r="BK50" s="55"/>
-      <c r="BL50" s="55"/>
-      <c r="BM50" s="55"/>
-      <c r="BN50" s="55"/>
-      <c r="BO50" s="55"/>
-      <c r="BP50" s="51" t="s">
-        <v>89</v>
+      <c r="BG50" s="164"/>
+      <c r="BH50" s="164"/>
+      <c r="BI50" s="164"/>
+      <c r="BJ50" s="164"/>
+      <c r="BK50" s="164"/>
+      <c r="BL50" s="164"/>
+      <c r="BM50" s="164"/>
+      <c r="BN50" s="164"/>
+      <c r="BO50" s="164"/>
+      <c r="BP50" s="46" t="s">
+        <v>87</v>
       </c>
-      <c r="BQ50" s="52"/>
-      <c r="BR50" s="52"/>
-      <c r="BS50" s="52"/>
-      <c r="BT50" s="52"/>
-      <c r="BU50" s="52"/>
-      <c r="BV50" s="52"/>
-      <c r="BW50" s="52"/>
-      <c r="BX50" s="52"/>
-      <c r="BY50" s="52"/>
-      <c r="BZ50" s="52"/>
-      <c r="CA50" s="52"/>
-      <c r="CB50" s="52"/>
-      <c r="CC50" s="52"/>
-      <c r="CD50" s="52"/>
+      <c r="BQ50" s="47"/>
+      <c r="BR50" s="47"/>
+      <c r="BS50" s="47"/>
+      <c r="BT50" s="47"/>
+      <c r="BU50" s="47"/>
+      <c r="BV50" s="47"/>
+      <c r="BW50" s="47"/>
+      <c r="BX50" s="47"/>
+      <c r="BY50" s="47"/>
+      <c r="BZ50" s="47"/>
+      <c r="CA50" s="47"/>
+      <c r="CB50" s="47"/>
+      <c r="CC50" s="47"/>
+      <c r="CD50" s="47"/>
       <c r="CE50" s="38" t="s">
         <v>75</v>
       </c>
@@ -33730,126 +33735,126 @@
       <c r="CG50" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="CH50" s="47" t="s">
+      <c r="CH50" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="CI50" s="41"/>
-      <c r="CJ50" s="48"/>
+      <c r="CI50" s="49"/>
+      <c r="CJ50" s="162"/>
       <c r="CK50"/>
       <c r="CL50"/>
     </row>
-    <row r="51" spans="2:90" s="27" customFormat="1" ht="111" customHeight="1">
-      <c r="B51" s="40" t="s">
-        <v>90</v>
+    <row r="51" spans="2:90" s="27" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="51" t="s">
+        <v>88</v>
       </c>
-      <c r="C51" s="41"/>
-      <c r="D51" s="41" t="s">
+      <c r="C51" s="49"/>
+      <c r="D51" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="E51" s="41"/>
-      <c r="F51" s="42" t="s">
+      <c r="E51" s="49"/>
+      <c r="F51" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="G51" s="43"/>
-      <c r="H51" s="41" t="s">
+      <c r="G51" s="56"/>
+      <c r="H51" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="I51" s="41"/>
-      <c r="J51" s="41"/>
-      <c r="K51" s="41">
+      <c r="I51" s="49"/>
+      <c r="J51" s="49"/>
+      <c r="K51" s="49">
         <v>1</v>
       </c>
-      <c r="L51" s="41"/>
-      <c r="M51" s="41"/>
-      <c r="N51" s="41">
+      <c r="L51" s="49"/>
+      <c r="M51" s="49"/>
+      <c r="N51" s="49">
         <v>1</v>
       </c>
-      <c r="O51" s="41"/>
-      <c r="P51" s="41"/>
-      <c r="Q51" s="41">
+      <c r="O51" s="49"/>
+      <c r="P51" s="49"/>
+      <c r="Q51" s="49">
         <v>3</v>
       </c>
-      <c r="R51" s="41"/>
-      <c r="S51" s="76" t="s">
+      <c r="R51" s="49"/>
+      <c r="S51" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="T51" s="74"/>
-      <c r="U51" s="74"/>
-      <c r="V51" s="74"/>
-      <c r="W51" s="74"/>
-      <c r="X51" s="75"/>
-      <c r="Y51" s="51" t="s">
+      <c r="T51" s="53"/>
+      <c r="U51" s="53"/>
+      <c r="V51" s="53"/>
+      <c r="W51" s="53"/>
+      <c r="X51" s="54"/>
+      <c r="Y51" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="Z51" s="52"/>
-      <c r="AA51" s="52"/>
-      <c r="AB51" s="52"/>
-      <c r="AC51" s="52"/>
-      <c r="AD51" s="52"/>
-      <c r="AE51" s="52"/>
-      <c r="AF51" s="52"/>
-      <c r="AG51" s="52"/>
-      <c r="AH51" s="52"/>
-      <c r="AI51" s="52"/>
-      <c r="AJ51" s="52"/>
-      <c r="AK51" s="52"/>
-      <c r="AL51" s="52"/>
-      <c r="AM51" s="52"/>
-      <c r="AN51" s="52"/>
-      <c r="AO51" s="52"/>
+      <c r="Z51" s="47"/>
+      <c r="AA51" s="47"/>
+      <c r="AB51" s="47"/>
+      <c r="AC51" s="47"/>
+      <c r="AD51" s="47"/>
+      <c r="AE51" s="47"/>
+      <c r="AF51" s="47"/>
+      <c r="AG51" s="47"/>
+      <c r="AH51" s="47"/>
+      <c r="AI51" s="47"/>
+      <c r="AJ51" s="47"/>
+      <c r="AK51" s="47"/>
+      <c r="AL51" s="47"/>
+      <c r="AM51" s="47"/>
+      <c r="AN51" s="47"/>
+      <c r="AO51" s="47"/>
       <c r="AP51" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="AQ51" s="51" t="s">
+      <c r="AQ51" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR51" s="47"/>
+      <c r="AS51" s="47"/>
+      <c r="AT51" s="47"/>
+      <c r="AU51" s="47"/>
+      <c r="AV51" s="47"/>
+      <c r="AW51" s="47"/>
+      <c r="AX51" s="47"/>
+      <c r="AY51" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ51" s="49"/>
+      <c r="BA51" s="49"/>
+      <c r="BB51" s="49"/>
+      <c r="BC51" s="49"/>
+      <c r="BD51" s="49"/>
+      <c r="BE51" s="49"/>
+      <c r="BF51" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="BG51" s="47"/>
+      <c r="BH51" s="47"/>
+      <c r="BI51" s="47"/>
+      <c r="BJ51" s="47"/>
+      <c r="BK51" s="47"/>
+      <c r="BL51" s="47"/>
+      <c r="BM51" s="47"/>
+      <c r="BN51" s="47"/>
+      <c r="BO51" s="47"/>
+      <c r="BP51" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="AR51" s="52"/>
-      <c r="AS51" s="52"/>
-      <c r="AT51" s="52"/>
-      <c r="AU51" s="52"/>
-      <c r="AV51" s="52"/>
-      <c r="AW51" s="52"/>
-      <c r="AX51" s="52"/>
-      <c r="AY51" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="AZ51" s="41"/>
-      <c r="BA51" s="41"/>
-      <c r="BB51" s="41"/>
-      <c r="BC51" s="41"/>
-      <c r="BD51" s="41"/>
-      <c r="BE51" s="41"/>
-      <c r="BF51" s="51" t="s">
+      <c r="BQ51" s="47"/>
+      <c r="BR51" s="47"/>
+      <c r="BS51" s="47"/>
+      <c r="BT51" s="47"/>
+      <c r="BU51" s="47"/>
+      <c r="BV51" s="47"/>
+      <c r="BW51" s="47"/>
+      <c r="BX51" s="47"/>
+      <c r="BY51" s="47"/>
+      <c r="BZ51" s="47"/>
+      <c r="CA51" s="47"/>
+      <c r="CB51" s="47"/>
+      <c r="CC51" s="47"/>
+      <c r="CD51" s="47"/>
+      <c r="CE51" s="38" t="s">
         <v>92</v>
-      </c>
-      <c r="BG51" s="52"/>
-      <c r="BH51" s="52"/>
-      <c r="BI51" s="52"/>
-      <c r="BJ51" s="52"/>
-      <c r="BK51" s="52"/>
-      <c r="BL51" s="52"/>
-      <c r="BM51" s="52"/>
-      <c r="BN51" s="52"/>
-      <c r="BO51" s="52"/>
-      <c r="BP51" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="BQ51" s="52"/>
-      <c r="BR51" s="52"/>
-      <c r="BS51" s="52"/>
-      <c r="BT51" s="52"/>
-      <c r="BU51" s="52"/>
-      <c r="BV51" s="52"/>
-      <c r="BW51" s="52"/>
-      <c r="BX51" s="52"/>
-      <c r="BY51" s="52"/>
-      <c r="BZ51" s="52"/>
-      <c r="CA51" s="52"/>
-      <c r="CB51" s="52"/>
-      <c r="CC51" s="52"/>
-      <c r="CD51" s="52"/>
-      <c r="CE51" s="38" t="s">
-        <v>94</v>
       </c>
       <c r="CF51" s="38" t="s">
         <v>76</v>
@@ -33857,126 +33862,126 @@
       <c r="CG51" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="CH51" s="47" t="s">
+      <c r="CH51" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="CI51" s="41"/>
-      <c r="CJ51" s="48"/>
+      <c r="CI51" s="49"/>
+      <c r="CJ51" s="162"/>
       <c r="CK51"/>
       <c r="CL51"/>
     </row>
-    <row r="52" spans="2:90" s="27" customFormat="1" ht="168.6" customHeight="1">
-      <c r="B52" s="40" t="s">
-        <v>95</v>
+    <row r="52" spans="2:90" s="27" customFormat="1" ht="168.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="51" t="s">
+        <v>93</v>
       </c>
-      <c r="C52" s="41"/>
-      <c r="D52" s="41" t="s">
+      <c r="C52" s="49"/>
+      <c r="D52" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="E52" s="41"/>
-      <c r="F52" s="42" t="s">
+      <c r="E52" s="49"/>
+      <c r="F52" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="G52" s="43"/>
-      <c r="H52" s="41" t="s">
+      <c r="G52" s="56"/>
+      <c r="H52" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="I52" s="41"/>
-      <c r="J52" s="41"/>
-      <c r="K52" s="41">
+      <c r="I52" s="49"/>
+      <c r="J52" s="49"/>
+      <c r="K52" s="49">
         <v>1</v>
       </c>
-      <c r="L52" s="41"/>
-      <c r="M52" s="41"/>
-      <c r="N52" s="41">
+      <c r="L52" s="49"/>
+      <c r="M52" s="49"/>
+      <c r="N52" s="49">
         <v>1</v>
       </c>
-      <c r="O52" s="41"/>
-      <c r="P52" s="41"/>
-      <c r="Q52" s="41">
+      <c r="O52" s="49"/>
+      <c r="P52" s="49"/>
+      <c r="Q52" s="49">
         <v>3</v>
       </c>
-      <c r="R52" s="41"/>
-      <c r="S52" s="76" t="s">
-        <v>96</v>
+      <c r="R52" s="49"/>
+      <c r="S52" s="52" t="s">
+        <v>94</v>
       </c>
-      <c r="T52" s="74"/>
-      <c r="U52" s="74"/>
-      <c r="V52" s="74"/>
-      <c r="W52" s="74"/>
-      <c r="X52" s="75"/>
-      <c r="Y52" s="51" t="s">
-        <v>96</v>
+      <c r="T52" s="53"/>
+      <c r="U52" s="53"/>
+      <c r="V52" s="53"/>
+      <c r="W52" s="53"/>
+      <c r="X52" s="54"/>
+      <c r="Y52" s="46" t="s">
+        <v>94</v>
       </c>
-      <c r="Z52" s="52"/>
-      <c r="AA52" s="52"/>
-      <c r="AB52" s="52"/>
-      <c r="AC52" s="52"/>
-      <c r="AD52" s="52"/>
-      <c r="AE52" s="52"/>
-      <c r="AF52" s="52"/>
-      <c r="AG52" s="52"/>
-      <c r="AH52" s="52"/>
-      <c r="AI52" s="52"/>
-      <c r="AJ52" s="52"/>
-      <c r="AK52" s="52"/>
-      <c r="AL52" s="52"/>
-      <c r="AM52" s="52"/>
-      <c r="AN52" s="52"/>
-      <c r="AO52" s="52"/>
+      <c r="Z52" s="47"/>
+      <c r="AA52" s="47"/>
+      <c r="AB52" s="47"/>
+      <c r="AC52" s="47"/>
+      <c r="AD52" s="47"/>
+      <c r="AE52" s="47"/>
+      <c r="AF52" s="47"/>
+      <c r="AG52" s="47"/>
+      <c r="AH52" s="47"/>
+      <c r="AI52" s="47"/>
+      <c r="AJ52" s="47"/>
+      <c r="AK52" s="47"/>
+      <c r="AL52" s="47"/>
+      <c r="AM52" s="47"/>
+      <c r="AN52" s="47"/>
+      <c r="AO52" s="47"/>
       <c r="AP52" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="AQ52" s="51" t="s">
-        <v>91</v>
+      <c r="AQ52" s="46" t="s">
+        <v>89</v>
       </c>
-      <c r="AR52" s="52"/>
-      <c r="AS52" s="52"/>
-      <c r="AT52" s="52"/>
-      <c r="AU52" s="52"/>
-      <c r="AV52" s="52"/>
-      <c r="AW52" s="52"/>
-      <c r="AX52" s="52"/>
-      <c r="AY52" s="47" t="s">
+      <c r="AR52" s="47"/>
+      <c r="AS52" s="47"/>
+      <c r="AT52" s="47"/>
+      <c r="AU52" s="47"/>
+      <c r="AV52" s="47"/>
+      <c r="AW52" s="47"/>
+      <c r="AX52" s="47"/>
+      <c r="AY52" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="AZ52" s="41"/>
-      <c r="BA52" s="41"/>
-      <c r="BB52" s="41"/>
-      <c r="BC52" s="41"/>
-      <c r="BD52" s="41"/>
-      <c r="BE52" s="41"/>
-      <c r="BF52" s="51" t="s">
-        <v>97</v>
+      <c r="AZ52" s="49"/>
+      <c r="BA52" s="49"/>
+      <c r="BB52" s="49"/>
+      <c r="BC52" s="49"/>
+      <c r="BD52" s="49"/>
+      <c r="BE52" s="49"/>
+      <c r="BF52" s="46" t="s">
+        <v>95</v>
       </c>
-      <c r="BG52" s="52"/>
-      <c r="BH52" s="52"/>
-      <c r="BI52" s="52"/>
-      <c r="BJ52" s="52"/>
-      <c r="BK52" s="52"/>
-      <c r="BL52" s="52"/>
-      <c r="BM52" s="52"/>
-      <c r="BN52" s="52"/>
-      <c r="BO52" s="52"/>
-      <c r="BP52" s="51" t="s">
-        <v>98</v>
+      <c r="BG52" s="47"/>
+      <c r="BH52" s="47"/>
+      <c r="BI52" s="47"/>
+      <c r="BJ52" s="47"/>
+      <c r="BK52" s="47"/>
+      <c r="BL52" s="47"/>
+      <c r="BM52" s="47"/>
+      <c r="BN52" s="47"/>
+      <c r="BO52" s="47"/>
+      <c r="BP52" s="46" t="s">
+        <v>96</v>
       </c>
-      <c r="BQ52" s="52"/>
-      <c r="BR52" s="52"/>
-      <c r="BS52" s="52"/>
-      <c r="BT52" s="52"/>
-      <c r="BU52" s="52"/>
-      <c r="BV52" s="52"/>
-      <c r="BW52" s="52"/>
-      <c r="BX52" s="52"/>
-      <c r="BY52" s="52"/>
-      <c r="BZ52" s="52"/>
-      <c r="CA52" s="52"/>
-      <c r="CB52" s="52"/>
-      <c r="CC52" s="52"/>
-      <c r="CD52" s="52"/>
+      <c r="BQ52" s="47"/>
+      <c r="BR52" s="47"/>
+      <c r="BS52" s="47"/>
+      <c r="BT52" s="47"/>
+      <c r="BU52" s="47"/>
+      <c r="BV52" s="47"/>
+      <c r="BW52" s="47"/>
+      <c r="BX52" s="47"/>
+      <c r="BY52" s="47"/>
+      <c r="BZ52" s="47"/>
+      <c r="CA52" s="47"/>
+      <c r="CB52" s="47"/>
+      <c r="CC52" s="47"/>
+      <c r="CD52" s="47"/>
       <c r="CE52" s="38" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="CF52" s="38" t="s">
         <v>76</v>
@@ -33984,126 +33989,126 @@
       <c r="CG52" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="CH52" s="47" t="s">
+      <c r="CH52" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="CI52" s="41"/>
-      <c r="CJ52" s="48"/>
+      <c r="CI52" s="49"/>
+      <c r="CJ52" s="162"/>
       <c r="CK52"/>
       <c r="CL52"/>
     </row>
-    <row r="53" spans="2:90" s="27" customFormat="1" ht="166.9" customHeight="1">
-      <c r="B53" s="40" t="s">
-        <v>99</v>
+    <row r="53" spans="2:90" s="27" customFormat="1" ht="166.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="51" t="s">
+        <v>97</v>
       </c>
-      <c r="C53" s="41"/>
-      <c r="D53" s="41" t="s">
+      <c r="C53" s="49"/>
+      <c r="D53" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="E53" s="41"/>
-      <c r="F53" s="42" t="s">
+      <c r="E53" s="49"/>
+      <c r="F53" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="G53" s="43"/>
-      <c r="H53" s="41" t="s">
+      <c r="G53" s="56"/>
+      <c r="H53" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="I53" s="41"/>
-      <c r="J53" s="41"/>
-      <c r="K53" s="41">
+      <c r="I53" s="49"/>
+      <c r="J53" s="49"/>
+      <c r="K53" s="49">
         <v>1</v>
       </c>
-      <c r="L53" s="41"/>
-      <c r="M53" s="41"/>
-      <c r="N53" s="41">
+      <c r="L53" s="49"/>
+      <c r="M53" s="49"/>
+      <c r="N53" s="49">
         <v>1</v>
       </c>
-      <c r="O53" s="41"/>
-      <c r="P53" s="41"/>
-      <c r="Q53" s="41">
+      <c r="O53" s="49"/>
+      <c r="P53" s="49"/>
+      <c r="Q53" s="49">
         <v>3</v>
       </c>
-      <c r="R53" s="41"/>
-      <c r="S53" s="76" t="s">
-        <v>83</v>
+      <c r="R53" s="49"/>
+      <c r="S53" s="52" t="s">
+        <v>82</v>
       </c>
-      <c r="T53" s="74"/>
-      <c r="U53" s="74"/>
-      <c r="V53" s="74"/>
-      <c r="W53" s="74"/>
-      <c r="X53" s="75"/>
-      <c r="Y53" s="51" t="s">
+      <c r="T53" s="53"/>
+      <c r="U53" s="53"/>
+      <c r="V53" s="53"/>
+      <c r="W53" s="53"/>
+      <c r="X53" s="54"/>
+      <c r="Y53" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="Z53" s="52"/>
-      <c r="AA53" s="52"/>
-      <c r="AB53" s="52"/>
-      <c r="AC53" s="52"/>
-      <c r="AD53" s="52"/>
-      <c r="AE53" s="52"/>
-      <c r="AF53" s="52"/>
-      <c r="AG53" s="52"/>
-      <c r="AH53" s="52"/>
-      <c r="AI53" s="52"/>
-      <c r="AJ53" s="52"/>
-      <c r="AK53" s="52"/>
-      <c r="AL53" s="52"/>
-      <c r="AM53" s="52"/>
-      <c r="AN53" s="52"/>
-      <c r="AO53" s="52"/>
+      <c r="Z53" s="47"/>
+      <c r="AA53" s="47"/>
+      <c r="AB53" s="47"/>
+      <c r="AC53" s="47"/>
+      <c r="AD53" s="47"/>
+      <c r="AE53" s="47"/>
+      <c r="AF53" s="47"/>
+      <c r="AG53" s="47"/>
+      <c r="AH53" s="47"/>
+      <c r="AI53" s="47"/>
+      <c r="AJ53" s="47"/>
+      <c r="AK53" s="47"/>
+      <c r="AL53" s="47"/>
+      <c r="AM53" s="47"/>
+      <c r="AN53" s="47"/>
+      <c r="AO53" s="47"/>
       <c r="AP53" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="AQ53" s="51" t="s">
+      <c r="AQ53" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="AR53" s="52"/>
-      <c r="AS53" s="52"/>
-      <c r="AT53" s="52"/>
-      <c r="AU53" s="52"/>
-      <c r="AV53" s="52"/>
-      <c r="AW53" s="52"/>
-      <c r="AX53" s="52"/>
-      <c r="AY53" s="47" t="s">
+      <c r="AR53" s="47"/>
+      <c r="AS53" s="47"/>
+      <c r="AT53" s="47"/>
+      <c r="AU53" s="47"/>
+      <c r="AV53" s="47"/>
+      <c r="AW53" s="47"/>
+      <c r="AX53" s="47"/>
+      <c r="AY53" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="AZ53" s="41"/>
-      <c r="BA53" s="41"/>
-      <c r="BB53" s="41"/>
-      <c r="BC53" s="41"/>
-      <c r="BD53" s="41"/>
-      <c r="BE53" s="41"/>
-      <c r="BF53" s="51" t="s">
-        <v>100</v>
+      <c r="AZ53" s="49"/>
+      <c r="BA53" s="49"/>
+      <c r="BB53" s="49"/>
+      <c r="BC53" s="49"/>
+      <c r="BD53" s="49"/>
+      <c r="BE53" s="49"/>
+      <c r="BF53" s="46" t="s">
+        <v>133</v>
       </c>
-      <c r="BG53" s="52"/>
-      <c r="BH53" s="52"/>
-      <c r="BI53" s="52"/>
-      <c r="BJ53" s="52"/>
-      <c r="BK53" s="52"/>
-      <c r="BL53" s="52"/>
-      <c r="BM53" s="52"/>
-      <c r="BN53" s="52"/>
-      <c r="BO53" s="52"/>
-      <c r="BP53" s="51" t="s">
-        <v>85</v>
+      <c r="BG53" s="47"/>
+      <c r="BH53" s="47"/>
+      <c r="BI53" s="47"/>
+      <c r="BJ53" s="47"/>
+      <c r="BK53" s="47"/>
+      <c r="BL53" s="47"/>
+      <c r="BM53" s="47"/>
+      <c r="BN53" s="47"/>
+      <c r="BO53" s="47"/>
+      <c r="BP53" s="46" t="s">
+        <v>134</v>
       </c>
-      <c r="BQ53" s="52"/>
-      <c r="BR53" s="52"/>
-      <c r="BS53" s="52"/>
-      <c r="BT53" s="52"/>
-      <c r="BU53" s="52"/>
-      <c r="BV53" s="52"/>
-      <c r="BW53" s="52"/>
-      <c r="BX53" s="52"/>
-      <c r="BY53" s="52"/>
-      <c r="BZ53" s="52"/>
-      <c r="CA53" s="52"/>
-      <c r="CB53" s="52"/>
-      <c r="CC53" s="52"/>
-      <c r="CD53" s="52"/>
+      <c r="BQ53" s="47"/>
+      <c r="BR53" s="47"/>
+      <c r="BS53" s="47"/>
+      <c r="BT53" s="47"/>
+      <c r="BU53" s="47"/>
+      <c r="BV53" s="47"/>
+      <c r="BW53" s="47"/>
+      <c r="BX53" s="47"/>
+      <c r="BY53" s="47"/>
+      <c r="BZ53" s="47"/>
+      <c r="CA53" s="47"/>
+      <c r="CB53" s="47"/>
+      <c r="CC53" s="47"/>
+      <c r="CD53" s="47"/>
       <c r="CE53" s="38" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="CF53" s="38" t="s">
         <v>76</v>
@@ -34111,126 +34116,126 @@
       <c r="CG53" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="CH53" s="47" t="s">
+      <c r="CH53" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="CI53" s="41"/>
-      <c r="CJ53" s="48"/>
+      <c r="CI53" s="49"/>
+      <c r="CJ53" s="162"/>
       <c r="CK53"/>
       <c r="CL53"/>
     </row>
-    <row r="54" spans="2:90" s="27" customFormat="1" ht="136.15" customHeight="1">
-      <c r="B54" s="40" t="s">
-        <v>101</v>
+    <row r="54" spans="2:90" s="27" customFormat="1" ht="136.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="51" t="s">
+        <v>98</v>
       </c>
-      <c r="C54" s="41"/>
-      <c r="D54" s="41" t="s">
+      <c r="C54" s="49"/>
+      <c r="D54" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="E54" s="41"/>
-      <c r="F54" s="42">
+      <c r="E54" s="49"/>
+      <c r="F54" s="55">
         <v>8</v>
       </c>
-      <c r="G54" s="43"/>
-      <c r="H54" s="41" t="s">
+      <c r="G54" s="56"/>
+      <c r="H54" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="I54" s="41"/>
-      <c r="J54" s="41"/>
-      <c r="K54" s="41">
+      <c r="I54" s="49"/>
+      <c r="J54" s="49"/>
+      <c r="K54" s="49">
         <v>1</v>
       </c>
-      <c r="L54" s="41"/>
-      <c r="M54" s="41"/>
-      <c r="N54" s="41">
+      <c r="L54" s="49"/>
+      <c r="M54" s="49"/>
+      <c r="N54" s="49">
         <v>1</v>
       </c>
-      <c r="O54" s="41"/>
-      <c r="P54" s="41"/>
-      <c r="Q54" s="41">
+      <c r="O54" s="49"/>
+      <c r="P54" s="49"/>
+      <c r="Q54" s="49">
         <v>3</v>
       </c>
-      <c r="R54" s="41"/>
-      <c r="S54" s="76" t="s">
-        <v>96</v>
+      <c r="R54" s="49"/>
+      <c r="S54" s="52" t="s">
+        <v>94</v>
       </c>
-      <c r="T54" s="74"/>
-      <c r="U54" s="74"/>
-      <c r="V54" s="74"/>
-      <c r="W54" s="74"/>
-      <c r="X54" s="75"/>
-      <c r="Y54" s="51" t="s">
-        <v>102</v>
+      <c r="T54" s="53"/>
+      <c r="U54" s="53"/>
+      <c r="V54" s="53"/>
+      <c r="W54" s="53"/>
+      <c r="X54" s="54"/>
+      <c r="Y54" s="46" t="s">
+        <v>99</v>
       </c>
-      <c r="Z54" s="52"/>
-      <c r="AA54" s="52"/>
-      <c r="AB54" s="52"/>
-      <c r="AC54" s="52"/>
-      <c r="AD54" s="52"/>
-      <c r="AE54" s="52"/>
-      <c r="AF54" s="52"/>
-      <c r="AG54" s="52"/>
-      <c r="AH54" s="52"/>
-      <c r="AI54" s="52"/>
-      <c r="AJ54" s="52"/>
-      <c r="AK54" s="52"/>
-      <c r="AL54" s="52"/>
-      <c r="AM54" s="52"/>
-      <c r="AN54" s="52"/>
-      <c r="AO54" s="52"/>
+      <c r="Z54" s="47"/>
+      <c r="AA54" s="47"/>
+      <c r="AB54" s="47"/>
+      <c r="AC54" s="47"/>
+      <c r="AD54" s="47"/>
+      <c r="AE54" s="47"/>
+      <c r="AF54" s="47"/>
+      <c r="AG54" s="47"/>
+      <c r="AH54" s="47"/>
+      <c r="AI54" s="47"/>
+      <c r="AJ54" s="47"/>
+      <c r="AK54" s="47"/>
+      <c r="AL54" s="47"/>
+      <c r="AM54" s="47"/>
+      <c r="AN54" s="47"/>
+      <c r="AO54" s="47"/>
       <c r="AP54" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="AQ54" s="51" t="s">
-        <v>103</v>
+      <c r="AQ54" s="46" t="s">
+        <v>100</v>
       </c>
-      <c r="AR54" s="52"/>
-      <c r="AS54" s="52"/>
-      <c r="AT54" s="52"/>
-      <c r="AU54" s="52"/>
-      <c r="AV54" s="52"/>
-      <c r="AW54" s="52"/>
-      <c r="AX54" s="52"/>
-      <c r="AY54" s="47" t="s">
+      <c r="AR54" s="47"/>
+      <c r="AS54" s="47"/>
+      <c r="AT54" s="47"/>
+      <c r="AU54" s="47"/>
+      <c r="AV54" s="47"/>
+      <c r="AW54" s="47"/>
+      <c r="AX54" s="47"/>
+      <c r="AY54" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="AZ54" s="41"/>
-      <c r="BA54" s="41"/>
-      <c r="BB54" s="41"/>
-      <c r="BC54" s="41"/>
-      <c r="BD54" s="41"/>
-      <c r="BE54" s="41"/>
-      <c r="BF54" s="51" t="s">
-        <v>97</v>
+      <c r="AZ54" s="49"/>
+      <c r="BA54" s="49"/>
+      <c r="BB54" s="49"/>
+      <c r="BC54" s="49"/>
+      <c r="BD54" s="49"/>
+      <c r="BE54" s="49"/>
+      <c r="BF54" s="46" t="s">
+        <v>95</v>
       </c>
-      <c r="BG54" s="52"/>
-      <c r="BH54" s="52"/>
-      <c r="BI54" s="52"/>
-      <c r="BJ54" s="52"/>
-      <c r="BK54" s="52"/>
-      <c r="BL54" s="52"/>
-      <c r="BM54" s="52"/>
-      <c r="BN54" s="52"/>
-      <c r="BO54" s="52"/>
-      <c r="BP54" s="51" t="s">
-        <v>98</v>
+      <c r="BG54" s="47"/>
+      <c r="BH54" s="47"/>
+      <c r="BI54" s="47"/>
+      <c r="BJ54" s="47"/>
+      <c r="BK54" s="47"/>
+      <c r="BL54" s="47"/>
+      <c r="BM54" s="47"/>
+      <c r="BN54" s="47"/>
+      <c r="BO54" s="47"/>
+      <c r="BP54" s="46" t="s">
+        <v>96</v>
       </c>
-      <c r="BQ54" s="52"/>
-      <c r="BR54" s="52"/>
-      <c r="BS54" s="52"/>
-      <c r="BT54" s="52"/>
-      <c r="BU54" s="52"/>
-      <c r="BV54" s="52"/>
-      <c r="BW54" s="52"/>
-      <c r="BX54" s="52"/>
-      <c r="BY54" s="52"/>
-      <c r="BZ54" s="52"/>
-      <c r="CA54" s="52"/>
-      <c r="CB54" s="52"/>
-      <c r="CC54" s="52"/>
-      <c r="CD54" s="52"/>
+      <c r="BQ54" s="47"/>
+      <c r="BR54" s="47"/>
+      <c r="BS54" s="47"/>
+      <c r="BT54" s="47"/>
+      <c r="BU54" s="47"/>
+      <c r="BV54" s="47"/>
+      <c r="BW54" s="47"/>
+      <c r="BX54" s="47"/>
+      <c r="BY54" s="47"/>
+      <c r="BZ54" s="47"/>
+      <c r="CA54" s="47"/>
+      <c r="CB54" s="47"/>
+      <c r="CC54" s="47"/>
+      <c r="CD54" s="47"/>
       <c r="CE54" s="38" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="CF54" s="38" t="s">
         <v>76</v>
@@ -34238,15 +34243,15 @@
       <c r="CG54" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="CH54" s="47" t="s">
+      <c r="CH54" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="CI54" s="41"/>
-      <c r="CJ54" s="48"/>
+      <c r="CI54" s="49"/>
+      <c r="CJ54" s="162"/>
       <c r="CK54"/>
       <c r="CL54"/>
     </row>
-    <row r="55" spans="2:90" ht="14.45" customHeight="1">
+    <row r="55" spans="2:90" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
@@ -34286,12 +34291,12 @@
       <c r="AM55" s="11"/>
       <c r="AN55" s="11"/>
     </row>
-    <row r="56" spans="2:90" ht="14.45" customHeight="1">
+    <row r="56" spans="2:90" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C56" s="15" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F56" s="10"/>
       <c r="G56" s="10"/>
@@ -34329,12 +34334,12 @@
       <c r="AM56" s="11"/>
       <c r="AN56" s="11"/>
     </row>
-    <row r="57" spans="2:90" ht="14.45" customHeight="1">
+    <row r="57" spans="2:90" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C57" s="28">
         <v>1</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E57" s="9"/>
       <c r="F57" s="10"/>
@@ -34345,7 +34350,7 @@
         <v>4</v>
       </c>
       <c r="K57" s="13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L57" s="9"/>
       <c r="M57" s="9"/>
@@ -34377,12 +34382,12 @@
       <c r="AM57" s="11"/>
       <c r="AN57" s="11"/>
     </row>
-    <row r="58" spans="2:90" ht="14.45" customHeight="1">
+    <row r="58" spans="2:90" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C58" s="28">
         <v>2</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E58" s="9"/>
       <c r="F58" s="10"/>
@@ -34425,12 +34430,12 @@
       <c r="AM58" s="11"/>
       <c r="AN58" s="11"/>
     </row>
-    <row r="59" spans="2:90">
+    <row r="59" spans="2:90" x14ac:dyDescent="0.25">
       <c r="C59" s="29">
         <v>3</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E59" s="9"/>
       <c r="F59" s="10"/>
@@ -34469,7 +34474,7 @@
       <c r="AM59" s="11"/>
       <c r="AN59" s="11"/>
     </row>
-    <row r="60" spans="2:90">
+    <row r="60" spans="2:90" x14ac:dyDescent="0.25">
       <c r="C60" s="29"/>
       <c r="D60" s="13"/>
       <c r="E60" s="9"/>
@@ -34509,13 +34514,13 @@
       <c r="AM60" s="11"/>
       <c r="AN60" s="11"/>
     </row>
-    <row r="61" spans="2:90">
+    <row r="61" spans="2:90" x14ac:dyDescent="0.25">
       <c r="C61" s="15" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D61" s="13"/>
       <c r="E61" s="13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="M61" s="13"/>
       <c r="N61" s="9"/>
@@ -34545,12 +34550,12 @@
       <c r="AM61" s="11"/>
       <c r="AN61" s="11"/>
     </row>
-    <row r="62" spans="2:90">
+    <row r="62" spans="2:90" x14ac:dyDescent="0.25">
       <c r="C62" s="28">
         <v>1</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E62" s="13"/>
       <c r="J62" s="9">
@@ -34587,12 +34592,12 @@
       <c r="AM62" s="11"/>
       <c r="AN62" s="11"/>
     </row>
-    <row r="63" spans="2:90">
+    <row r="63" spans="2:90" x14ac:dyDescent="0.25">
       <c r="C63" s="28">
         <v>2</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E63" s="13"/>
       <c r="J63" s="9"/>
@@ -34625,12 +34630,12 @@
       <c r="AM63" s="11"/>
       <c r="AN63" s="11"/>
     </row>
-    <row r="64" spans="2:90">
+    <row r="64" spans="2:90" x14ac:dyDescent="0.25">
       <c r="C64" s="29">
         <v>3</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E64" s="13"/>
       <c r="J64" s="9"/>
@@ -34663,7 +34668,7 @@
       <c r="AM64" s="11"/>
       <c r="AN64" s="11"/>
     </row>
-    <row r="65" spans="2:42">
+    <row r="65" spans="2:42" x14ac:dyDescent="0.25">
       <c r="C65" s="29"/>
       <c r="D65" s="13"/>
       <c r="E65" s="13"/>
@@ -34697,13 +34702,13 @@
       <c r="AM65" s="11"/>
       <c r="AN65" s="11"/>
     </row>
-    <row r="66" spans="2:42">
+    <row r="66" spans="2:42" x14ac:dyDescent="0.25">
       <c r="C66" s="15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D66" s="13"/>
       <c r="E66" s="13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="M66" s="13"/>
       <c r="N66" s="9"/>
@@ -34732,12 +34737,12 @@
       <c r="AM66" s="11"/>
       <c r="AN66" s="11"/>
     </row>
-    <row r="67" spans="2:42">
+    <row r="67" spans="2:42" x14ac:dyDescent="0.25">
       <c r="C67" s="28">
         <v>1</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E67" s="9"/>
       <c r="F67" s="10"/>
@@ -34748,7 +34753,7 @@
         <v>4</v>
       </c>
       <c r="K67" s="13" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="L67" s="9"/>
       <c r="M67" s="9"/>
@@ -34758,7 +34763,7 @@
         <v>7</v>
       </c>
       <c r="R67" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="S67" s="11"/>
       <c r="T67" s="11"/>
@@ -34786,12 +34791,12 @@
       <c r="AM67" s="11"/>
       <c r="AN67" s="11"/>
     </row>
-    <row r="68" spans="2:42">
+    <row r="68" spans="2:42" x14ac:dyDescent="0.25">
       <c r="C68" s="28">
         <v>2</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E68" s="9"/>
       <c r="F68" s="10"/>
@@ -34802,7 +34807,7 @@
         <v>5</v>
       </c>
       <c r="K68" s="13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L68" s="9"/>
       <c r="M68" s="9"/>
@@ -34812,7 +34817,7 @@
         <v>8</v>
       </c>
       <c r="R68" s="13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="S68" s="11"/>
       <c r="T68" s="11"/>
@@ -34836,12 +34841,12 @@
       <c r="AM68" s="11"/>
       <c r="AN68" s="11"/>
     </row>
-    <row r="69" spans="2:42" ht="12.75" customHeight="1">
+    <row r="69" spans="2:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C69" s="29">
         <v>3</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E69" s="9"/>
       <c r="F69" s="10"/>
@@ -34852,7 +34857,7 @@
         <v>6</v>
       </c>
       <c r="K69" s="13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="L69" s="9"/>
       <c r="M69" s="13"/>
@@ -34862,7 +34867,7 @@
         <v>9</v>
       </c>
       <c r="R69" s="13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="S69" s="11"/>
       <c r="T69" s="11"/>
@@ -34886,7 +34891,7 @@
       <c r="AM69" s="11"/>
       <c r="AN69" s="11"/>
     </row>
-    <row r="70" spans="2:42" ht="9.75" customHeight="1">
+    <row r="70" spans="2:42" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C70" s="29"/>
       <c r="D70" s="13"/>
       <c r="E70" s="9"/>
@@ -34926,9 +34931,9 @@
       <c r="AM70" s="11"/>
       <c r="AN70" s="11"/>
     </row>
-    <row r="73" spans="2:42">
+    <row r="73" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B73" s="30" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C73" s="11"/>
       <c r="D73" s="11"/>
@@ -34960,9 +34965,9 @@
       <c r="AD73" s="11"/>
       <c r="AE73" s="11"/>
     </row>
-    <row r="74" spans="2:42">
+    <row r="74" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B74" s="31" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="Q74" s="12"/>
       <c r="R74" s="31"/>
@@ -34974,7 +34979,7 @@
       <c r="X74" s="31"/>
       <c r="AB74" s="12"/>
     </row>
-    <row r="75" spans="2:42" ht="15.75" thickBot="1">
+    <row r="75" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C75" s="12"/>
       <c r="R75" s="12"/>
       <c r="S75" s="12"/>
@@ -34984,7 +34989,7 @@
       <c r="W75" s="12"/>
       <c r="X75" s="12"/>
       <c r="Z75" s="12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AB75" s="12"/>
       <c r="AJ75" s="11"/>
@@ -34995,30 +35000,30 @@
       <c r="AO75" s="11"/>
       <c r="AP75" s="11"/>
     </row>
-    <row r="76" spans="2:42" ht="15.75" thickBot="1">
-      <c r="B76" s="169"/>
-      <c r="C76" s="169"/>
-      <c r="D76" s="169"/>
-      <c r="E76" s="169"/>
-      <c r="F76" s="169"/>
-      <c r="G76" s="169"/>
-      <c r="H76" s="169"/>
-      <c r="I76" s="169"/>
-      <c r="J76" s="169"/>
-      <c r="K76" s="169"/>
-      <c r="L76" s="169"/>
-      <c r="M76" s="169"/>
-      <c r="N76" s="169"/>
-      <c r="O76" s="169"/>
-      <c r="P76" s="169"/>
+    <row r="76" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="40"/>
+      <c r="C76" s="40"/>
+      <c r="D76" s="40"/>
+      <c r="E76" s="40"/>
+      <c r="F76" s="40"/>
+      <c r="G76" s="40"/>
+      <c r="H76" s="40"/>
+      <c r="I76" s="40"/>
+      <c r="J76" s="40"/>
+      <c r="K76" s="40"/>
+      <c r="L76" s="40"/>
+      <c r="M76" s="40"/>
+      <c r="N76" s="40"/>
+      <c r="O76" s="40"/>
+      <c r="P76" s="40"/>
       <c r="Z76" s="12" t="s">
         <v>34</v>
       </c>
       <c r="AA76" s="32" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AC76" s="12" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AD76" s="18"/>
       <c r="AJ76" s="11"/>
@@ -35029,43 +35034,43 @@
       <c r="AO76" s="11"/>
       <c r="AP76" s="11"/>
     </row>
-    <row r="77" spans="2:42">
+    <row r="77" spans="2:42" x14ac:dyDescent="0.25">
       <c r="AK77" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AO77" s="4"/>
       <c r="AP77" s="4"/>
     </row>
-    <row r="78" spans="2:42">
+    <row r="78" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B78" s="33" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C78" s="11"/>
       <c r="D78" s="11"/>
       <c r="E78" s="11"/>
-      <c r="F78" s="170"/>
-      <c r="G78" s="171"/>
-      <c r="H78" s="171"/>
-      <c r="I78" s="171"/>
-      <c r="J78" s="171"/>
-      <c r="K78" s="171"/>
-      <c r="L78" s="171"/>
-      <c r="M78" s="171"/>
-      <c r="N78" s="171"/>
-      <c r="O78" s="171"/>
-      <c r="P78" s="171"/>
-      <c r="Q78" s="172"/>
+      <c r="F78" s="41"/>
+      <c r="G78" s="42"/>
+      <c r="H78" s="42"/>
+      <c r="I78" s="42"/>
+      <c r="J78" s="42"/>
+      <c r="K78" s="42"/>
+      <c r="L78" s="42"/>
+      <c r="M78" s="42"/>
+      <c r="N78" s="42"/>
+      <c r="O78" s="42"/>
+      <c r="P78" s="42"/>
+      <c r="Q78" s="43"/>
       <c r="AK78" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AM78" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AO78" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
-    <row r="79" spans="2:42">
+    <row r="79" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B79" s="13"/>
       <c r="C79" s="11"/>
       <c r="D79" s="11"/>
@@ -35101,7 +35106,238 @@
       <c r="AP79" s="37"/>
     </row>
   </sheetData>
+  <autoFilter ref="A46:CL46" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <filterColumn colId="1" showButton="0"/>
+    <filterColumn colId="3" showButton="0"/>
+    <filterColumn colId="5" showButton="0"/>
+    <filterColumn colId="7" showButton="0"/>
+    <filterColumn colId="8" showButton="0"/>
+    <filterColumn colId="10" showButton="0"/>
+    <filterColumn colId="11" showButton="0"/>
+    <filterColumn colId="13" showButton="0"/>
+    <filterColumn colId="14" showButton="0"/>
+    <filterColumn colId="16" showButton="0"/>
+    <filterColumn colId="18" showButton="0"/>
+    <filterColumn colId="19" showButton="0"/>
+    <filterColumn colId="20" showButton="0"/>
+    <filterColumn colId="21" showButton="0"/>
+    <filterColumn colId="22" showButton="0"/>
+    <filterColumn colId="24" showButton="0"/>
+    <filterColumn colId="25" showButton="0"/>
+    <filterColumn colId="26" showButton="0"/>
+    <filterColumn colId="27" showButton="0"/>
+    <filterColumn colId="28" showButton="0"/>
+    <filterColumn colId="29" showButton="0"/>
+    <filterColumn colId="30" showButton="0"/>
+    <filterColumn colId="31" showButton="0"/>
+    <filterColumn colId="32" showButton="0"/>
+    <filterColumn colId="33" showButton="0"/>
+    <filterColumn colId="34" showButton="0"/>
+    <filterColumn colId="35" showButton="0"/>
+    <filterColumn colId="36" showButton="0"/>
+    <filterColumn colId="37" showButton="0"/>
+    <filterColumn colId="38" showButton="0"/>
+    <filterColumn colId="39" showButton="0"/>
+    <filterColumn colId="42" showButton="0"/>
+    <filterColumn colId="43" showButton="0"/>
+    <filterColumn colId="44" showButton="0"/>
+    <filterColumn colId="45" showButton="0"/>
+    <filterColumn colId="46" showButton="0"/>
+    <filterColumn colId="47" showButton="0"/>
+    <filterColumn colId="48" showButton="0"/>
+    <filterColumn colId="50" showButton="0"/>
+    <filterColumn colId="51" showButton="0"/>
+    <filterColumn colId="52" showButton="0"/>
+    <filterColumn colId="53" showButton="0"/>
+    <filterColumn colId="54" showButton="0"/>
+    <filterColumn colId="55" showButton="0"/>
+    <filterColumn colId="57" showButton="0"/>
+    <filterColumn colId="58" showButton="0"/>
+    <filterColumn colId="59" showButton="0"/>
+    <filterColumn colId="60" showButton="0"/>
+    <filterColumn colId="61" showButton="0"/>
+    <filterColumn colId="62" showButton="0"/>
+    <filterColumn colId="63" showButton="0"/>
+    <filterColumn colId="64" showButton="0"/>
+    <filterColumn colId="65" showButton="0"/>
+    <filterColumn colId="67" showButton="0"/>
+    <filterColumn colId="68" showButton="0"/>
+    <filterColumn colId="69" showButton="0"/>
+    <filterColumn colId="70" showButton="0"/>
+    <filterColumn colId="71" showButton="0"/>
+    <filterColumn colId="72" showButton="0"/>
+    <filterColumn colId="73" showButton="0"/>
+    <filterColumn colId="74" showButton="0"/>
+    <filterColumn colId="75" showButton="0"/>
+    <filterColumn colId="76" showButton="0"/>
+    <filterColumn colId="77" showButton="0"/>
+    <filterColumn colId="78" showButton="0"/>
+    <filterColumn colId="79" showButton="0"/>
+    <filterColumn colId="80" showButton="0"/>
+    <filterColumn colId="85" showButton="0"/>
+    <filterColumn colId="86" showButton="0"/>
+  </autoFilter>
   <mergeCells count="184">
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="CH46:CJ46"/>
+    <mergeCell ref="CH47:CJ47"/>
+    <mergeCell ref="CH51:CJ51"/>
+    <mergeCell ref="CH49:CJ49"/>
+    <mergeCell ref="BF49:BO49"/>
+    <mergeCell ref="AY49:BE49"/>
+    <mergeCell ref="AY51:BE51"/>
+    <mergeCell ref="AQ50:AX50"/>
+    <mergeCell ref="Y52:AO52"/>
+    <mergeCell ref="Y48:AO48"/>
+    <mergeCell ref="BP46:CD46"/>
+    <mergeCell ref="BP52:CD52"/>
+    <mergeCell ref="BF52:BO52"/>
+    <mergeCell ref="BF50:BO50"/>
+    <mergeCell ref="BP50:CD50"/>
+    <mergeCell ref="Y50:AO50"/>
+    <mergeCell ref="BF48:BO48"/>
+    <mergeCell ref="AQ48:AX48"/>
+    <mergeCell ref="BF46:BO46"/>
+    <mergeCell ref="AY48:BE48"/>
+    <mergeCell ref="AY52:BE52"/>
+    <mergeCell ref="AQ52:AX52"/>
+    <mergeCell ref="AY50:BE50"/>
+    <mergeCell ref="BF47:BO47"/>
+    <mergeCell ref="CH48:CJ48"/>
+    <mergeCell ref="CH52:CJ52"/>
+    <mergeCell ref="CH53:CJ53"/>
+    <mergeCell ref="CH54:CJ54"/>
+    <mergeCell ref="CH50:CJ50"/>
+    <mergeCell ref="BP48:CD48"/>
+    <mergeCell ref="Y54:AO54"/>
+    <mergeCell ref="AQ49:AX49"/>
+    <mergeCell ref="AQ51:AX51"/>
+    <mergeCell ref="BF51:BO51"/>
+    <mergeCell ref="Y53:AO53"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="AQ54:AX54"/>
+    <mergeCell ref="AQ53:AX53"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="S54:X54"/>
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="N52:P52"/>
+    <mergeCell ref="K54:M54"/>
+    <mergeCell ref="N54:P54"/>
+    <mergeCell ref="S50:X50"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="H3:AO4"/>
+    <mergeCell ref="G7:AO7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:AE8"/>
+    <mergeCell ref="AF8:AO8"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:AE11"/>
+    <mergeCell ref="AF11:AO11"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:AE9"/>
+    <mergeCell ref="AF9:AO9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:AE10"/>
+    <mergeCell ref="AF10:AO10"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="H15:AO15"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="H17:AO17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="H18:AO18"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:AO32"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="H19:AO19"/>
+    <mergeCell ref="J22:AI22"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:AO27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:AO28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:AO29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:AO30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:AO31"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="H16:AO16"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="N46:P46"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="S46:X46"/>
+    <mergeCell ref="Y46:AO46"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="S48:X48"/>
+    <mergeCell ref="S52:X52"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="K46:M46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="AQ46:AX46"/>
+    <mergeCell ref="AY46:BE46"/>
+    <mergeCell ref="S51:X51"/>
+    <mergeCell ref="S49:X49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="N48:P48"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="Y49:AO49"/>
+    <mergeCell ref="Y51:AO51"/>
+    <mergeCell ref="Y47:AO47"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="N51:P51"/>
+    <mergeCell ref="N50:P50"/>
+    <mergeCell ref="Q50:R50"/>
     <mergeCell ref="B76:P76"/>
     <mergeCell ref="F78:Q78"/>
     <mergeCell ref="BP47:CD47"/>
@@ -35126,166 +35362,6 @@
     <mergeCell ref="F54:G54"/>
     <mergeCell ref="Q54:R54"/>
     <mergeCell ref="D49:E49"/>
-    <mergeCell ref="AQ46:AX46"/>
-    <mergeCell ref="AY46:BE46"/>
-    <mergeCell ref="S51:X51"/>
-    <mergeCell ref="S49:X49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="N48:P48"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="N49:P49"/>
-    <mergeCell ref="Y49:AO49"/>
-    <mergeCell ref="Y51:AO51"/>
-    <mergeCell ref="Y47:AO47"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="N51:P51"/>
-    <mergeCell ref="N50:P50"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="H16:AO16"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="N46:P46"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="S46:X46"/>
-    <mergeCell ref="Y46:AO46"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="S48:X48"/>
-    <mergeCell ref="S52:X52"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="K46:M46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="H15:AO15"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="H17:AO17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="H18:AO18"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:AO32"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="H19:AO19"/>
-    <mergeCell ref="J22:AI22"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:AO27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:AO28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:AO29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:AO30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:AO31"/>
-    <mergeCell ref="H3:AO4"/>
-    <mergeCell ref="G7:AO7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:AE8"/>
-    <mergeCell ref="AF8:AO8"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:AE11"/>
-    <mergeCell ref="AF11:AO11"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:AE9"/>
-    <mergeCell ref="AF9:AO9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:AE10"/>
-    <mergeCell ref="AF10:AO10"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="AQ54:AX54"/>
-    <mergeCell ref="AQ53:AX53"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="S54:X54"/>
-    <mergeCell ref="K52:M52"/>
-    <mergeCell ref="N52:P52"/>
-    <mergeCell ref="K54:M54"/>
-    <mergeCell ref="N54:P54"/>
-    <mergeCell ref="S50:X50"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="CH48:CJ48"/>
-    <mergeCell ref="CH52:CJ52"/>
-    <mergeCell ref="CH53:CJ53"/>
-    <mergeCell ref="CH54:CJ54"/>
-    <mergeCell ref="CH50:CJ50"/>
-    <mergeCell ref="BP48:CD48"/>
-    <mergeCell ref="Y54:AO54"/>
-    <mergeCell ref="AQ49:AX49"/>
-    <mergeCell ref="AQ51:AX51"/>
-    <mergeCell ref="BF51:BO51"/>
-    <mergeCell ref="Y53:AO53"/>
-    <mergeCell ref="CH46:CJ46"/>
-    <mergeCell ref="CH47:CJ47"/>
-    <mergeCell ref="CH51:CJ51"/>
-    <mergeCell ref="CH49:CJ49"/>
-    <mergeCell ref="BF49:BO49"/>
-    <mergeCell ref="AY49:BE49"/>
-    <mergeCell ref="AY51:BE51"/>
-    <mergeCell ref="AQ50:AX50"/>
-    <mergeCell ref="Y52:AO52"/>
-    <mergeCell ref="Y48:AO48"/>
-    <mergeCell ref="BP46:CD46"/>
-    <mergeCell ref="BP52:CD52"/>
-    <mergeCell ref="BF52:BO52"/>
-    <mergeCell ref="BF50:BO50"/>
-    <mergeCell ref="BP50:CD50"/>
-    <mergeCell ref="Y50:AO50"/>
-    <mergeCell ref="BF48:BO48"/>
-    <mergeCell ref="AQ48:AX48"/>
-    <mergeCell ref="BF46:BO46"/>
-    <mergeCell ref="AY48:BE48"/>
-    <mergeCell ref="AY52:BE52"/>
-    <mergeCell ref="AQ52:AX52"/>
-    <mergeCell ref="AY50:BE50"/>
-    <mergeCell ref="BF47:BO47"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="H51:J51"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="Y47:AO47">
@@ -35600,15 +35676,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Fehca xmlns="328335c8-173a-4c26-85d0-3846c13a1e29" xsi:nil="true"/>
@@ -35620,14 +35687,49 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45104A0F-A5F1-4568-8D3C-B52BFD9F0476}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45104A0F-A5F1-4568-8D3C-B52BFD9F0476}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
+    <ds:schemaRef ds:uri="328335c8-173a-4c26-85d0-3846c13a1e29"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{783BB6A6-3905-4E83-B2F2-A2F9F4C9FD4F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A24D3D4-21B4-43C7-A91D-1B663C81D234}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="328335c8-173a-4c26-85d0-3846c13a1e29"/>
+    <ds:schemaRef ds:uri="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A24D3D4-21B4-43C7-A91D-1B663C81D234}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{783BB6A6-3905-4E83-B2F2-A2F9F4C9FD4F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>